--- a/Lab 1 - Results Template.xlsx
+++ b/Lab 1 - Results Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mines0-my.sharepoint.com/personal/tessahaws_mines_edu/Documents/Years/Senior/Fall/Robotics/Labs/IntroToRobotics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{2817B20B-292F-46DE-8733-EDFD4BC374F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A81F8942-FCB1-473A-8A17-F77385AFECA8}"/>
+  <xr:revisionPtr revIDLastSave="331" documentId="8_{2817B20B-292F-46DE-8733-EDFD4BC374F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{356C3D19-B8D7-464F-8730-E7FD5A2B479D}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="732" windowWidth="23028" windowHeight="12228" xr2:uid="{EA4EB6AE-EF90-46D8-9FD0-3C84C7D17E0F}"/>
+    <workbookView xWindow="11442" yWindow="0" windowWidth="11676" windowHeight="13038" xr2:uid="{EA4EB6AE-EF90-46D8-9FD0-3C84C7D17E0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -305,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I23" authorId="0" shapeId="0" xr:uid="{26B6C41E-F264-43B8-8B94-3E57AFCB655E}">
+    <comment ref="I25" authorId="0" shapeId="0" xr:uid="{26B6C41E-F264-43B8-8B94-3E57AFCB655E}">
       <text>
         <r>
           <rPr>
@@ -329,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{7D8D3842-CFC9-48A5-9E4B-4D11E92C2D1E}">
+    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{7D8D3842-CFC9-48A5-9E4B-4D11E92C2D1E}">
       <text>
         <r>
           <rPr>
@@ -354,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K23" authorId="0" shapeId="0" xr:uid="{D4739383-1C90-46C0-9356-403BEFFE998F}">
+    <comment ref="K25" authorId="0" shapeId="0" xr:uid="{D4739383-1C90-46C0-9356-403BEFFE998F}">
       <text>
         <r>
           <rPr>
@@ -378,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L23" authorId="0" shapeId="0" xr:uid="{764CF038-A1B8-4B4C-8DFB-418784039E5B}">
+    <comment ref="L25" authorId="0" shapeId="0" xr:uid="{764CF038-A1B8-4B4C-8DFB-418784039E5B}">
       <text>
         <r>
           <rPr>
@@ -402,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M23" authorId="0" shapeId="0" xr:uid="{B81A46FD-3ED7-4571-BB1C-69609B4B8996}">
+    <comment ref="M25" authorId="0" shapeId="0" xr:uid="{B81A46FD-3ED7-4571-BB1C-69609B4B8996}">
       <text>
         <r>
           <rPr>
@@ -426,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N23" authorId="0" shapeId="0" xr:uid="{D115521D-A57B-4A4E-BC52-0BA0803E2DC6}">
+    <comment ref="N25" authorId="0" shapeId="0" xr:uid="{D115521D-A57B-4A4E-BC52-0BA0803E2DC6}">
       <text>
         <r>
           <rPr>
@@ -450,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O23" authorId="0" shapeId="0" xr:uid="{C609F586-222E-472B-9323-7468ED4D9A93}">
+    <comment ref="O25" authorId="0" shapeId="0" xr:uid="{C609F586-222E-472B-9323-7468ED4D9A93}">
       <text>
         <r>
           <rPr>
@@ -475,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P23" authorId="0" shapeId="0" xr:uid="{5645C76D-11D3-4574-8C4D-E29575BA2B14}">
+    <comment ref="P25" authorId="0" shapeId="0" xr:uid="{5645C76D-11D3-4574-8C4D-E29575BA2B14}">
       <text>
         <r>
           <rPr>
@@ -499,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q23" authorId="0" shapeId="0" xr:uid="{31F4988A-3A23-4308-973E-A9850C87BB5F}">
+    <comment ref="Q25" authorId="0" shapeId="0" xr:uid="{31F4988A-3A23-4308-973E-A9850C87BB5F}">
       <text>
         <r>
           <rPr>
@@ -523,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U23" authorId="0" shapeId="0" xr:uid="{ADF82217-C5CE-43D1-9A29-A03E2818F04E}">
+    <comment ref="U25" authorId="0" shapeId="0" xr:uid="{ADF82217-C5CE-43D1-9A29-A03E2818F04E}">
       <text>
         <r>
           <rPr>
@@ -553,7 +553,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Radius of Pulley Wheel (m):</t>
   </si>
@@ -700,6 +700,12 @@
       </rPr>
       <t>: Test maximum washer load and consider adding a gear train before starting tests.</t>
     </r>
+  </si>
+  <si>
+    <t>light grey</t>
+  </si>
+  <si>
+    <t>dark grey</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1004,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1020,8 +1026,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1041,36 +1045,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1107,6 +1081,42 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1279,7 +1289,7 @@
                   <c:v>69.528374999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>231.76125000000002</c:v>
+                  <c:v>77.253750000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1291,37 +1301,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>156.50236070703042</c:v>
+                  <c:v>86.197513642426387</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150.24226627874921</c:v>
+                  <c:v>77.464432213843367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140.67627928721836</c:v>
+                  <c:v>71.90345359116975</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>127.3239544735163</c:v>
+                  <c:v>65.422280112671118</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>124.78593544746614</c:v>
+                  <c:v>58.335183956027656</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>114.86411795011409</c:v>
+                  <c:v>52.358343362519335</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>106.70615502752075</c:v>
+                  <c:v>43.732285338014606</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>101.51504478293866</c:v>
+                  <c:v>38.176157102972738</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>86.945755948350239</c:v>
+                  <c:v>31.507238393362524</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>80.429478735947114</c:v>
+                  <c:v>26.954120250941735</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>21.928375724841157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1431,7 +1441,7 @@
                   <c:v>69.528374999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>231.76125000000002</c:v>
+                  <c:v>77.253750000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1446,34 +1456,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.569208695652177</c:v>
+                  <c:v>16.750105574184875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.209123595505623</c:v>
+                  <c:v>27.741738976233776</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.89</c:v>
+                  <c:v>34.205384242709023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.848757016840427</c:v>
+                  <c:v>33.44618520513589</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.550000000000011</c:v>
+                  <c:v>37.134134285978007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.897563920454552</c:v>
+                  <c:v>36.622373307284498</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.994750293772036</c:v>
+                  <c:v>35.818898866508583</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.642788461538466</c:v>
+                  <c:v>33.650155045927995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.851070663811562</c:v>
+                  <c:v>33.196118808828345</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>31.15485599518426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2539,6 +2549,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -2836,10 +2850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80C9C28-A187-4D77-9D7A-490A5A1079C7}">
-  <dimension ref="A1:AX34"/>
+  <dimension ref="A1:AX35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="G8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2859,85 +2873,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="20.399999999999999" x14ac:dyDescent="0.75">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:50" ht="20.399999999999999" x14ac:dyDescent="0.75">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="4" spans="1:50" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="J4" s="40" t="s">
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
+      <c r="J4" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-      <c r="P4" s="40" t="s">
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="P4" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="42"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="52"/>
     </row>
     <row r="6" spans="1:50" ht="23.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="53" t="s">
         <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:50" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="44"/>
-      <c r="E7" s="37" t="s">
+      <c r="B7" s="54"/>
+      <c r="E7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="38"/>
-      <c r="S7" s="55" t="s">
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="48"/>
+      <c r="S7" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="T7" s="57"/>
-      <c r="U7" s="56"/>
-      <c r="W7" s="55" t="s">
+      <c r="T7" s="45"/>
+      <c r="U7" s="44"/>
+      <c r="W7" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="X7" s="56"/>
+      <c r="X7" s="44"/>
     </row>
     <row r="8" spans="1:50" ht="28.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="45"/>
+      <c r="B8" s="55"/>
       <c r="E8" s="10" t="s">
         <v>27</v>
       </c>
@@ -2962,10 +2979,10 @@
       <c r="L8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="29" t="s">
+      <c r="M8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="29" t="s">
+      <c r="N8" s="27" t="s">
         <v>12</v>
       </c>
       <c r="O8" s="10" t="s">
@@ -2977,78 +2994,78 @@
       <c r="Q8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="S8" s="21" t="s">
+      <c r="S8" s="19" t="s">
         <v>14</v>
       </c>
       <c r="T8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="24" t="s">
+      <c r="U8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="W8" s="21" t="s">
+      <c r="W8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="X8" s="24" t="s">
+      <c r="X8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AK8" s="46" t="s">
+      <c r="AK8" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="AL8" s="47"/>
-      <c r="AM8" s="47"/>
-      <c r="AN8" s="47"/>
-      <c r="AO8" s="47"/>
-      <c r="AP8" s="48"/>
-      <c r="AS8" s="46" t="s">
+      <c r="AL8" s="35"/>
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="35"/>
+      <c r="AO8" s="35"/>
+      <c r="AP8" s="36"/>
+      <c r="AS8" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="AT8" s="47"/>
-      <c r="AU8" s="47"/>
-      <c r="AV8" s="47"/>
-      <c r="AW8" s="47"/>
-      <c r="AX8" s="48"/>
+      <c r="AT8" s="35"/>
+      <c r="AU8" s="35"/>
+      <c r="AV8" s="35"/>
+      <c r="AW8" s="35"/>
+      <c r="AX8" s="36"/>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="E9" s="11">
         <v>0</v>
       </c>
       <c r="F9" s="7">
-        <v>2.4</v>
+        <v>3.4860000000000002</v>
       </c>
       <c r="G9" s="11">
-        <v>200</v>
-      </c>
-      <c r="H9" s="35">
-        <v>5</v>
+        <v>92.86</v>
+      </c>
+      <c r="H9" s="33">
+        <v>4.0599999999999996</v>
       </c>
       <c r="I9" s="15">
         <f>$C$12/F9</f>
-        <v>0.30729166666666669</v>
+        <v>0.16924842226047043</v>
       </c>
       <c r="J9" s="15">
         <f>I9/$C$11</f>
-        <v>16.388888888888889</v>
+        <v>9.0265825205584242</v>
       </c>
       <c r="K9" s="16">
         <f>J9*(1/(2*PI()))*60</f>
-        <v>156.50236070703042</v>
-      </c>
-      <c r="L9" s="27">
+        <v>86.197513642426387</v>
+      </c>
+      <c r="L9" s="25">
         <f>E9*$C$13</f>
         <v>0</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="22">
         <f>L9*9.81</f>
         <v>0</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="22">
         <f>M9*$C$11*1000</f>
         <v>0</v>
       </c>
-      <c r="O9" s="28">
+      <c r="O9" s="26">
         <f>H9*G9</f>
-        <v>1000</v>
+        <v>377.01159999999999</v>
       </c>
       <c r="P9" s="16">
         <f>J9*N9</f>
@@ -3058,64 +3075,64 @@
         <f>P9/O9*100</f>
         <v>0</v>
       </c>
-      <c r="S9" s="25">
+      <c r="S9" s="23">
         <v>51</v>
       </c>
-      <c r="T9" s="26">
+      <c r="T9" s="24">
         <v>16</v>
       </c>
-      <c r="U9" s="24">
+      <c r="U9" s="22">
         <f>($C$12/T9)*(1/$C$11)*(1/(2*PI()))*60</f>
-        <v>23.475354106054564</v>
-      </c>
-      <c r="W9" s="33">
+        <v>18.780283284843648</v>
+      </c>
+      <c r="W9" s="31">
         <v>1</v>
       </c>
-      <c r="X9" s="35"/>
-      <c r="AK9" s="49"/>
-      <c r="AL9" s="50"/>
-      <c r="AM9" s="50"/>
-      <c r="AN9" s="50"/>
-      <c r="AO9" s="50"/>
-      <c r="AP9" s="51"/>
-      <c r="AS9" s="49"/>
-      <c r="AT9" s="50"/>
-      <c r="AU9" s="50"/>
-      <c r="AV9" s="50"/>
-      <c r="AW9" s="50"/>
-      <c r="AX9" s="51"/>
+      <c r="X9" s="33"/>
+      <c r="AK9" s="37"/>
+      <c r="AL9" s="38"/>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="39"/>
+      <c r="AS9" s="37"/>
+      <c r="AT9" s="38"/>
+      <c r="AU9" s="38"/>
+      <c r="AV9" s="38"/>
+      <c r="AW9" s="38"/>
+      <c r="AX9" s="39"/>
     </row>
     <row r="10" spans="1:50" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="38"/>
+      <c r="C10" s="48"/>
       <c r="E10" s="11">
         <v>1</v>
       </c>
       <c r="F10" s="7">
-        <v>2.5</v>
+        <v>3.879</v>
       </c>
       <c r="G10" s="11">
-        <v>230</v>
+        <v>92.38</v>
       </c>
       <c r="H10" s="13">
-        <v>5</v>
+        <v>4.05</v>
       </c>
       <c r="I10" s="15">
         <f t="shared" ref="I10:I19" si="0">$C$12/F10</f>
-        <v>0.29500000000000004</v>
+        <v>0.15210105697344675</v>
       </c>
       <c r="J10" s="15">
         <f t="shared" ref="J10:J19" si="1">I10/$C$11</f>
-        <v>15.733333333333336</v>
+        <v>8.112056371917161</v>
       </c>
       <c r="K10" s="16">
         <f t="shared" ref="K10:K19" si="2">J10*(1/(2*PI()))*60</f>
-        <v>150.24226627874921</v>
-      </c>
-      <c r="L10" s="27">
-        <f t="shared" ref="L10:L19" si="3">E10*$C$13</f>
+        <v>77.464432213843367</v>
+      </c>
+      <c r="L10" s="25">
+        <f t="shared" ref="L10:L18" si="3">E10*$C$13</f>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="M10" s="15">
@@ -3126,19 +3143,19 @@
         <f t="shared" ref="N10:N19" si="5">M10*$C$11*1000</f>
         <v>7.7253750000000005</v>
       </c>
-      <c r="O10" s="28">
+      <c r="O10" s="26">
         <f t="shared" ref="O10:O19" si="6">H10*G10</f>
-        <v>1150</v>
+        <v>374.13899999999995</v>
       </c>
       <c r="P10" s="16">
         <f t="shared" ref="P10:P19" si="7">J10*N10</f>
-        <v>121.54590000000003</v>
+        <v>62.668677494199542</v>
       </c>
       <c r="Q10" s="6">
         <f t="shared" ref="Q10:Q19" si="8">P10/O10*100</f>
-        <v>10.569208695652177</v>
-      </c>
-      <c r="S10" s="22">
+        <v>16.750105574184875</v>
+      </c>
+      <c r="S10" s="20">
         <f>255*0.4</f>
         <v>102</v>
       </c>
@@ -3147,24 +3164,24 @@
       </c>
       <c r="U10" s="15">
         <f>($C$12/T10)*(1/$C$11)*(1/(2*PI()))*60</f>
-        <v>53.657952242410438</v>
-      </c>
-      <c r="W10" s="21">
+        <v>42.926361793928344</v>
+      </c>
+      <c r="W10" s="19">
         <v>2</v>
       </c>
       <c r="X10" s="13"/>
-      <c r="AK10" s="52"/>
-      <c r="AL10" s="53"/>
-      <c r="AM10" s="53"/>
-      <c r="AN10" s="53"/>
-      <c r="AO10" s="53"/>
-      <c r="AP10" s="54"/>
-      <c r="AS10" s="52"/>
-      <c r="AT10" s="53"/>
-      <c r="AU10" s="53"/>
-      <c r="AV10" s="53"/>
-      <c r="AW10" s="53"/>
-      <c r="AX10" s="54"/>
+      <c r="AK10" s="40"/>
+      <c r="AL10" s="41"/>
+      <c r="AM10" s="41"/>
+      <c r="AN10" s="41"/>
+      <c r="AO10" s="41"/>
+      <c r="AP10" s="42"/>
+      <c r="AS10" s="40"/>
+      <c r="AT10" s="41"/>
+      <c r="AU10" s="41"/>
+      <c r="AV10" s="41"/>
+      <c r="AW10" s="41"/>
+      <c r="AX10" s="42"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1" t="s">
@@ -3177,27 +3194,27 @@
         <v>2</v>
       </c>
       <c r="F11" s="7">
-        <v>2.67</v>
+        <v>4.1790000000000003</v>
       </c>
       <c r="G11" s="11">
-        <v>250</v>
+        <v>107.53</v>
       </c>
       <c r="H11" s="13">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="I11" s="15">
         <f t="shared" si="0"/>
-        <v>0.27621722846441948</v>
+        <v>0.14118210098109593</v>
       </c>
       <c r="J11" s="15">
         <f t="shared" si="1"/>
-        <v>14.731585518102372</v>
+        <v>7.5297120523251166</v>
       </c>
       <c r="K11" s="16">
         <f t="shared" si="2"/>
-        <v>140.67627928721836</v>
-      </c>
-      <c r="L11" s="27">
+        <v>71.90345359116975</v>
+      </c>
+      <c r="L11" s="25">
         <f t="shared" si="3"/>
         <v>8.4000000000000005E-2</v>
       </c>
@@ -3209,19 +3226,19 @@
         <f t="shared" si="5"/>
         <v>15.450750000000001</v>
       </c>
-      <c r="O11" s="28">
+      <c r="O11" s="26">
         <f t="shared" si="6"/>
-        <v>1250</v>
+        <v>419.36700000000002</v>
       </c>
       <c r="P11" s="16">
         <f t="shared" si="7"/>
-        <v>227.61404494382026</v>
+        <v>116.3396984924623</v>
       </c>
       <c r="Q11" s="6">
         <f t="shared" si="8"/>
-        <v>18.209123595505623</v>
-      </c>
-      <c r="S11" s="22">
+        <v>27.741738976233776</v>
+      </c>
+      <c r="S11" s="20">
         <f>255*0.6</f>
         <v>153</v>
       </c>
@@ -3230,9 +3247,9 @@
       </c>
       <c r="U11" s="15">
         <f>($C$12/T11)*(1/$C$11)*(1/(2*PI()))*60</f>
-        <v>93.901416424218255</v>
-      </c>
-      <c r="W11" s="21">
+        <v>75.121133139374592</v>
+      </c>
+      <c r="W11" s="19">
         <v>3</v>
       </c>
       <c r="X11" s="13"/>
@@ -3242,33 +3259,33 @@
         <v>1</v>
       </c>
       <c r="C12" s="13">
-        <v>0.73750000000000004</v>
+        <v>0.59</v>
       </c>
       <c r="E12" s="11">
         <v>3</v>
       </c>
       <c r="F12" s="7">
-        <v>2.95</v>
+        <v>4.593</v>
       </c>
       <c r="G12" s="11">
-        <v>270</v>
+        <v>125.12</v>
       </c>
       <c r="H12" s="13">
-        <v>5</v>
+        <v>3.71</v>
       </c>
       <c r="I12" s="15">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.12845634661441324</v>
       </c>
       <c r="J12" s="15">
         <f t="shared" si="1"/>
-        <v>13.333333333333334</v>
+        <v>6.8510051527687068</v>
       </c>
       <c r="K12" s="16">
         <f t="shared" si="2"/>
-        <v>127.3239544735163</v>
-      </c>
-      <c r="L12" s="27">
+        <v>65.422280112671118</v>
+      </c>
+      <c r="L12" s="25">
         <f t="shared" si="3"/>
         <v>0.126</v>
       </c>
@@ -3280,19 +3297,19 @@
         <f t="shared" si="5"/>
         <v>23.176125000000003</v>
       </c>
-      <c r="O12" s="28">
+      <c r="O12" s="26">
         <f t="shared" si="6"/>
-        <v>1350</v>
+        <v>464.1952</v>
       </c>
       <c r="P12" s="16">
         <f t="shared" si="7"/>
-        <v>309.01500000000004</v>
+        <v>158.77975179621166</v>
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="8"/>
-        <v>22.89</v>
-      </c>
-      <c r="S12" s="22">
+        <v>34.205384242709023</v>
+      </c>
+      <c r="S12" s="20">
         <f>255*0.8</f>
         <v>204</v>
       </c>
@@ -3301,9 +3318,9 @@
       </c>
       <c r="U12" s="15">
         <f>($C$12/T12)*(1/$C$11)*(1/(2*PI()))*60</f>
-        <v>136.58387843522655</v>
-      </c>
-      <c r="W12" s="21">
+        <v>109.26710274818124</v>
+      </c>
+      <c r="W12" s="19">
         <v>4</v>
       </c>
       <c r="X12" s="13"/>
@@ -3319,27 +3336,27 @@
         <v>4</v>
       </c>
       <c r="F13" s="7">
-        <v>3.01</v>
+        <v>5.1509999999999998</v>
       </c>
       <c r="G13" s="11">
-        <v>290</v>
+        <v>176.93</v>
       </c>
       <c r="H13" s="13">
-        <v>5</v>
+        <v>3.19</v>
       </c>
       <c r="I13" s="15">
         <f t="shared" si="0"/>
-        <v>0.24501661129568109</v>
+        <v>0.11454086585129102</v>
       </c>
       <c r="J13" s="15">
         <f t="shared" si="1"/>
-        <v>13.067552602436326</v>
+        <v>6.1088461787355213</v>
       </c>
       <c r="K13" s="16">
         <f t="shared" si="2"/>
-        <v>124.78593544746614</v>
-      </c>
-      <c r="L13" s="27">
+        <v>58.335183956027656</v>
+      </c>
+      <c r="L13" s="25">
         <f t="shared" si="3"/>
         <v>0.16800000000000001</v>
       </c>
@@ -3351,19 +3368,19 @@
         <f t="shared" si="5"/>
         <v>30.901500000000002</v>
       </c>
-      <c r="O13" s="28">
+      <c r="O13" s="26">
         <f t="shared" si="6"/>
-        <v>1450</v>
+        <v>564.4067</v>
       </c>
       <c r="P13" s="16">
         <f t="shared" si="7"/>
-        <v>403.80697674418616</v>
+        <v>188.77251019219571</v>
       </c>
       <c r="Q13" s="6">
         <f t="shared" si="8"/>
-        <v>27.848757016840427</v>
-      </c>
-      <c r="S13" s="23">
+        <v>33.44618520513589</v>
+      </c>
+      <c r="S13" s="21">
         <v>255</v>
       </c>
       <c r="T13" s="5">
@@ -3371,9 +3388,9 @@
       </c>
       <c r="U13" s="17">
         <f>($C$12/T13)*(1/$C$11)*(1/(2*PI()))*60</f>
-        <v>187.80283284843651</v>
-      </c>
-      <c r="W13" s="21">
+        <v>150.24226627874918</v>
+      </c>
+      <c r="W13" s="19">
         <v>5</v>
       </c>
       <c r="X13" s="13"/>
@@ -3383,27 +3400,27 @@
         <v>5</v>
       </c>
       <c r="F14" s="7">
-        <v>3.27</v>
+        <v>5.7389999999999999</v>
       </c>
       <c r="G14" s="11">
-        <v>350</v>
+        <v>182.8</v>
       </c>
       <c r="H14" s="13">
-        <v>5</v>
+        <v>3.12</v>
       </c>
       <c r="I14" s="15">
         <f t="shared" si="0"/>
-        <v>0.22553516819571867</v>
+        <v>0.10280536678863914</v>
       </c>
       <c r="J14" s="15">
         <f t="shared" si="1"/>
-        <v>12.028542303771664</v>
+        <v>5.4829528953940878</v>
       </c>
       <c r="K14" s="16">
         <f t="shared" si="2"/>
-        <v>114.86411795011409</v>
-      </c>
-      <c r="L14" s="27">
+        <v>52.358343362519335</v>
+      </c>
+      <c r="L14" s="25">
         <f t="shared" si="3"/>
         <v>0.21000000000000002</v>
       </c>
@@ -3415,19 +3432,19 @@
         <f t="shared" si="5"/>
         <v>38.626875000000005</v>
       </c>
-      <c r="O14" s="28">
+      <c r="O14" s="26">
         <f t="shared" si="6"/>
-        <v>1750</v>
+        <v>570.33600000000001</v>
       </c>
       <c r="P14" s="16">
         <f t="shared" si="7"/>
-        <v>464.62500000000017</v>
+        <v>211.78933612127554</v>
       </c>
       <c r="Q14" s="6">
         <f t="shared" si="8"/>
-        <v>26.550000000000011</v>
-      </c>
-      <c r="W14" s="21">
+        <v>37.134134285978007</v>
+      </c>
+      <c r="W14" s="19">
         <v>6</v>
       </c>
       <c r="X14" s="13"/>
@@ -3437,27 +3454,27 @@
         <v>6</v>
       </c>
       <c r="F15" s="7">
-        <v>3.52</v>
+        <v>6.8710000000000004</v>
       </c>
       <c r="G15" s="11">
-        <v>400</v>
+        <v>192.57</v>
       </c>
       <c r="H15" s="13">
-        <v>5</v>
+        <v>3.01</v>
       </c>
       <c r="I15" s="15">
         <f t="shared" si="0"/>
-        <v>0.20951704545454547</v>
+        <v>8.5868141464124567E-2</v>
       </c>
       <c r="J15" s="15">
         <f t="shared" si="1"/>
-        <v>11.174242424242426</v>
+        <v>4.5796342114199771</v>
       </c>
       <c r="K15" s="16">
         <f t="shared" si="2"/>
-        <v>106.70615502752075</v>
-      </c>
-      <c r="L15" s="27">
+        <v>43.732285338014606</v>
+      </c>
+      <c r="L15" s="25">
         <f t="shared" si="3"/>
         <v>0.252</v>
       </c>
@@ -3469,19 +3486,19 @@
         <f t="shared" si="5"/>
         <v>46.352250000000005</v>
       </c>
-      <c r="O15" s="28">
+      <c r="O15" s="26">
         <f t="shared" si="6"/>
-        <v>2000</v>
+        <v>579.63569999999993</v>
       </c>
       <c r="P15" s="16">
         <f t="shared" si="7"/>
-        <v>517.95127840909106</v>
+        <v>212.27634987629165</v>
       </c>
       <c r="Q15" s="6">
         <f t="shared" si="8"/>
-        <v>25.897563920454552</v>
-      </c>
-      <c r="W15" s="21">
+        <v>36.622373307284498</v>
+      </c>
+      <c r="W15" s="19">
         <v>7</v>
       </c>
       <c r="X15" s="13"/>
@@ -3491,27 +3508,27 @@
         <v>7</v>
       </c>
       <c r="F16" s="7">
-        <v>3.7</v>
+        <v>7.8710000000000004</v>
       </c>
       <c r="G16" s="11">
-        <v>460</v>
+        <v>221.9</v>
       </c>
       <c r="H16" s="13">
-        <v>5</v>
+        <v>2.72</v>
       </c>
       <c r="I16" s="15">
         <f t="shared" si="0"/>
-        <v>0.19932432432432431</v>
+        <v>7.4958709185618089E-2</v>
       </c>
       <c r="J16" s="15">
         <f t="shared" si="1"/>
-        <v>10.63063063063063</v>
+        <v>3.9977978232329647</v>
       </c>
       <c r="K16" s="16">
         <f t="shared" si="2"/>
-        <v>101.51504478293866</v>
-      </c>
-      <c r="L16" s="27">
+        <v>38.176157102972738</v>
+      </c>
+      <c r="L16" s="25">
         <f t="shared" si="3"/>
         <v>0.29400000000000004</v>
       </c>
@@ -3523,19 +3540,19 @@
         <f t="shared" si="5"/>
         <v>54.077625000000005</v>
       </c>
-      <c r="O16" s="28">
+      <c r="O16" s="26">
         <f t="shared" si="6"/>
-        <v>2300</v>
+        <v>603.5680000000001</v>
       </c>
       <c r="P16" s="16">
         <f t="shared" si="7"/>
-        <v>574.87925675675683</v>
+        <v>216.19141151060856</v>
       </c>
       <c r="Q16" s="6">
         <f t="shared" si="8"/>
-        <v>24.994750293772036</v>
-      </c>
-      <c r="W16" s="21">
+        <v>35.818898866508583</v>
+      </c>
+      <c r="W16" s="19">
         <v>8</v>
       </c>
       <c r="X16" s="13"/>
@@ -3545,27 +3562,27 @@
         <v>8</v>
       </c>
       <c r="F17" s="7">
-        <v>4.32</v>
+        <v>9.5370000000000008</v>
       </c>
       <c r="G17" s="11">
-        <v>520</v>
+        <v>240.47</v>
       </c>
       <c r="H17" s="13">
-        <v>5</v>
+        <v>2.52</v>
       </c>
       <c r="I17" s="15">
         <f t="shared" si="0"/>
-        <v>0.17071759259259259</v>
+        <v>6.1864317919681236E-2</v>
       </c>
       <c r="J17" s="15">
         <f t="shared" si="1"/>
-        <v>9.1049382716049383</v>
+        <v>3.2994302890496661</v>
       </c>
       <c r="K17" s="16">
         <f t="shared" si="2"/>
-        <v>86.945755948350239</v>
-      </c>
-      <c r="L17" s="27">
+        <v>31.507238393362524</v>
+      </c>
+      <c r="L17" s="25">
         <f t="shared" si="3"/>
         <v>0.33600000000000002</v>
       </c>
@@ -3577,19 +3594,19 @@
         <f t="shared" si="5"/>
         <v>61.803000000000004</v>
       </c>
-      <c r="O17" s="28">
+      <c r="O17" s="26">
         <f t="shared" si="6"/>
-        <v>2600</v>
+        <v>605.98440000000005</v>
       </c>
       <c r="P17" s="16">
         <f t="shared" si="7"/>
-        <v>562.71250000000009</v>
+        <v>203.91469015413654</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="8"/>
-        <v>21.642788461538466</v>
-      </c>
-      <c r="W17" s="21">
+        <v>33.650155045927995</v>
+      </c>
+      <c r="W17" s="19">
         <v>9</v>
       </c>
       <c r="X17" s="13"/>
@@ -3599,27 +3616,27 @@
         <v>9</v>
       </c>
       <c r="F18" s="7">
-        <v>4.67</v>
+        <v>11.148</v>
       </c>
       <c r="G18" s="11">
-        <v>590</v>
+        <v>281.52</v>
       </c>
       <c r="H18" s="13">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="I18" s="15">
         <f t="shared" si="0"/>
-        <v>0.15792291220556745</v>
+        <v>5.2924291352709006E-2</v>
       </c>
       <c r="J18" s="15">
         <f t="shared" si="1"/>
-        <v>8.4225553176302643</v>
+        <v>2.8226288721444805</v>
       </c>
       <c r="K18" s="16">
         <f t="shared" si="2"/>
-        <v>80.429478735947114</v>
-      </c>
-      <c r="L18" s="27">
+        <v>26.954120250941735</v>
+      </c>
+      <c r="L18" s="25">
         <f t="shared" si="3"/>
         <v>0.378</v>
       </c>
@@ -3631,896 +3648,969 @@
         <f t="shared" si="5"/>
         <v>69.528374999999997</v>
       </c>
-      <c r="O18" s="28">
+      <c r="O18" s="26">
         <f t="shared" si="6"/>
-        <v>2950</v>
+        <v>591.19200000000001</v>
       </c>
       <c r="P18" s="16">
         <f t="shared" si="7"/>
-        <v>585.60658458244109</v>
+        <v>196.25279870828848</v>
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="8"/>
-        <v>19.851070663811562</v>
-      </c>
-      <c r="W18" s="34">
+        <v>33.196118808828345</v>
+      </c>
+      <c r="W18" s="32">
         <v>10</v>
       </c>
       <c r="X18" s="14"/>
     </row>
     <row r="19" spans="5:50" x14ac:dyDescent="0.55000000000000004">
       <c r="E19" s="12">
-        <v>30</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="F19" s="8">
+        <v>13.702999999999999</v>
       </c>
       <c r="G19" s="12">
-        <v>630</v>
+        <v>304.5</v>
       </c>
       <c r="H19" s="14">
-        <v>5</v>
-      </c>
-      <c r="I19" s="17" t="e">
+        <v>1.87</v>
+      </c>
+      <c r="I19" s="17">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J19" s="17" t="e">
+        <v>4.3056265051448585E-2</v>
+      </c>
+      <c r="J19" s="17">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K19" s="18" t="e">
+        <v>2.2963341360772578</v>
+      </c>
+      <c r="K19" s="18">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L19" s="30">
-        <f t="shared" si="3"/>
-        <v>1.26</v>
+        <v>21.928375724841157</v>
+      </c>
+      <c r="L19" s="28">
+        <f>E19*$C$13</f>
+        <v>0.42000000000000004</v>
       </c>
       <c r="M19" s="17">
         <f t="shared" si="4"/>
-        <v>12.360600000000002</v>
+        <v>4.1202000000000005</v>
       </c>
       <c r="N19" s="17">
         <f t="shared" si="5"/>
-        <v>231.76125000000002</v>
+        <v>77.253750000000011</v>
       </c>
       <c r="O19" s="18">
         <f t="shared" si="6"/>
-        <v>3150</v>
-      </c>
-      <c r="P19" s="18" t="e">
+        <v>569.41500000000008</v>
+      </c>
+      <c r="P19" s="18">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q19" s="9" t="e">
+        <v>177.40042326497849</v>
+      </c>
+      <c r="Q19" s="9">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <v>31.15485599518426</v>
       </c>
     </row>
     <row r="20" spans="5:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="E20" s="20"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="3"/>
+      <c r="E20" s="12">
+        <v>11</v>
+      </c>
+      <c r="F20" s="8">
+        <v>19.253</v>
+      </c>
+      <c r="G20" s="12">
+        <v>338.71</v>
+      </c>
+      <c r="H20" s="14">
+        <v>1.53</v>
+      </c>
+      <c r="I20" s="17">
+        <f t="shared" ref="I20:I21" si="9">$C$12/F20</f>
+        <v>3.0644574871448605E-2</v>
+      </c>
+      <c r="J20" s="17">
+        <f t="shared" ref="J20:J21" si="10">I20/$C$11</f>
+        <v>1.634377326477259</v>
+      </c>
+      <c r="K20" s="18">
+        <f t="shared" ref="K20:K21" si="11">J20*(1/(2*PI()))*60</f>
+        <v>15.60715382317033</v>
+      </c>
+      <c r="L20" s="28">
+        <f>E20*$C$13</f>
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="M20" s="17">
+        <f t="shared" ref="M20:M21" si="12">L20*9.81</f>
+        <v>4.5322200000000006</v>
+      </c>
+      <c r="N20" s="17">
+        <f t="shared" ref="N20:N21" si="13">M20*$C$11*1000</f>
+        <v>84.979124999999996</v>
+      </c>
+      <c r="O20" s="18">
+        <f t="shared" ref="O20:O21" si="14">H20*G20</f>
+        <v>518.22629999999992</v>
+      </c>
+      <c r="P20" s="18">
+        <f t="shared" ref="P20:P21" si="15">J20*N20</f>
+        <v>138.88795512387679</v>
+      </c>
+      <c r="Q20" s="9">
+        <f t="shared" ref="Q20:Q21" si="16">P20/O20*100</f>
+        <v>26.800638084920976</v>
+      </c>
     </row>
-    <row r="21" spans="5:50" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="E21" s="3"/>
+    <row r="21" spans="5:50" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" s="56">
+        <v>12</v>
+      </c>
+      <c r="F21" s="57">
+        <v>34.880000000000003</v>
+      </c>
+      <c r="G21" s="56">
+        <v>318.18</v>
+      </c>
+      <c r="H21" s="58">
+        <v>1.72</v>
+      </c>
+      <c r="I21" s="59">
+        <f t="shared" si="9"/>
+        <v>1.6915137614678898E-2</v>
+      </c>
+      <c r="J21" s="59">
+        <f t="shared" si="10"/>
+        <v>0.90214067278287458</v>
+      </c>
+      <c r="K21" s="60">
+        <f t="shared" si="11"/>
+        <v>8.6148088462585548</v>
+      </c>
+      <c r="L21" s="59">
+        <f>E21*$C$13</f>
+        <v>0.504</v>
+      </c>
+      <c r="M21" s="59">
+        <f t="shared" si="12"/>
+        <v>4.9442400000000006</v>
+      </c>
+      <c r="N21" s="59">
+        <f t="shared" si="13"/>
+        <v>92.70450000000001</v>
+      </c>
+      <c r="O21" s="60">
+        <f t="shared" si="14"/>
+        <v>547.26959999999997</v>
+      </c>
+      <c r="P21" s="60">
+        <f t="shared" si="15"/>
+        <v>83.632500000000007</v>
+      </c>
+      <c r="Q21" s="61">
+        <f t="shared" si="16"/>
+        <v>15.281773370930892</v>
+      </c>
     </row>
-    <row r="22" spans="5:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E22" s="37" t="s">
+    <row r="22" spans="5:50" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22" s="56">
+        <v>13</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="56">
+        <v>489.25</v>
+      </c>
+      <c r="H22" s="58">
+        <v>0</v>
+      </c>
+      <c r="I22" s="59" t="e">
+        <f t="shared" ref="I22" si="17">$C$12/F22</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J22" s="59" t="e">
+        <f t="shared" ref="J22" si="18">I22/$C$11</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K22" s="60" t="e">
+        <f t="shared" ref="K22" si="19">J22*(1/(2*PI()))*60</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L22" s="59">
+        <f>E22*$C$13</f>
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="M22" s="59">
+        <f t="shared" ref="M22" si="20">L22*9.81</f>
+        <v>5.3562600000000007</v>
+      </c>
+      <c r="N22" s="59">
+        <f t="shared" ref="N22" si="21">M22*$C$11*1000</f>
+        <v>100.42987500000001</v>
+      </c>
+      <c r="O22" s="60">
+        <f t="shared" ref="O22" si="22">H22*G22</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="60" t="e">
+        <f t="shared" ref="P22" si="23">J22*N22</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q22" s="61" t="e">
+        <f t="shared" ref="Q22" si="24">P22/O22*100</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="5:50" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E23" s="3"/>
+      <c r="K23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="5:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="38"/>
-      <c r="S22" s="55" t="s">
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="48"/>
+      <c r="S24" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="T22" s="57"/>
-      <c r="U22" s="56"/>
-      <c r="W22" s="55" t="s">
+      <c r="T24" s="45"/>
+      <c r="U24" s="44"/>
+      <c r="W24" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="X22" s="56"/>
-      <c r="Z22" s="46" t="s">
+      <c r="X24" s="44"/>
+      <c r="Z24" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="48"/>
-      <c r="AK22" s="46" t="s">
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="36"/>
+      <c r="AK24" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="AL22" s="47"/>
-      <c r="AM22" s="47"/>
-      <c r="AN22" s="47"/>
-      <c r="AO22" s="47"/>
-      <c r="AP22" s="48"/>
-      <c r="AS22" s="46" t="s">
+      <c r="AL24" s="35"/>
+      <c r="AM24" s="35"/>
+      <c r="AN24" s="35"/>
+      <c r="AO24" s="35"/>
+      <c r="AP24" s="36"/>
+      <c r="AS24" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AT22" s="47"/>
-      <c r="AU22" s="47"/>
-      <c r="AV22" s="47"/>
-      <c r="AW22" s="47"/>
-      <c r="AX22" s="48"/>
+      <c r="AT24" s="35"/>
+      <c r="AU24" s="35"/>
+      <c r="AV24" s="35"/>
+      <c r="AW24" s="35"/>
+      <c r="AX24" s="36"/>
     </row>
-    <row r="23" spans="5:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E23" s="10" t="s">
+    <row r="25" spans="5:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E25" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H25" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I25" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="L25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M23" s="29" t="s">
+      <c r="M25" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="29" t="s">
+      <c r="N25" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="O23" s="10" t="s">
+      <c r="O25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P23" s="10" t="s">
+      <c r="P25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Q23" s="10" t="s">
+      <c r="Q25" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="S23" s="21" t="s">
+      <c r="S25" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="T23" s="6" t="s">
+      <c r="T25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="U23" s="24" t="s">
+      <c r="U25" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="W23" s="21" t="s">
+      <c r="W25" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="X23" s="24" t="s">
+      <c r="X25" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="50"/>
-      <c r="AC23" s="50"/>
-      <c r="AD23" s="50"/>
-      <c r="AE23" s="51"/>
-      <c r="AK23" s="49"/>
-      <c r="AL23" s="50"/>
-      <c r="AM23" s="50"/>
-      <c r="AN23" s="50"/>
-      <c r="AO23" s="50"/>
-      <c r="AP23" s="51"/>
-      <c r="AS23" s="49"/>
-      <c r="AT23" s="50"/>
-      <c r="AU23" s="50"/>
-      <c r="AV23" s="50"/>
-      <c r="AW23" s="50"/>
-      <c r="AX23" s="51"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="38"/>
+      <c r="AE25" s="39"/>
+      <c r="AK25" s="37"/>
+      <c r="AL25" s="38"/>
+      <c r="AM25" s="38"/>
+      <c r="AN25" s="38"/>
+      <c r="AO25" s="38"/>
+      <c r="AP25" s="39"/>
+      <c r="AS25" s="37"/>
+      <c r="AT25" s="38"/>
+      <c r="AU25" s="38"/>
+      <c r="AV25" s="38"/>
+      <c r="AW25" s="38"/>
+      <c r="AX25" s="39"/>
     </row>
-    <row r="24" spans="5:50" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="E24" s="11">
+    <row r="26" spans="5:50" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E26" s="11">
         <v>0</v>
       </c>
-      <c r="F24" s="7">
-        <v>2.75</v>
-      </c>
-      <c r="G24" s="11">
-        <v>200</v>
-      </c>
-      <c r="H24" s="35">
-        <v>5</v>
-      </c>
-      <c r="I24" s="15">
-        <f>$C$12/F24</f>
-        <v>0.26818181818181819</v>
-      </c>
-      <c r="J24" s="15">
-        <f>I24/$C$11</f>
-        <v>14.303030303030305</v>
-      </c>
-      <c r="K24" s="16">
-        <f>J24*(1/(2*PI()))*60</f>
-        <v>136.58387843522655</v>
-      </c>
-      <c r="L24" s="27">
-        <f>E24*$C$13</f>
+      <c r="F26" s="7">
+        <v>3.0489999999999999</v>
+      </c>
+      <c r="G26" s="11">
+        <v>125.61</v>
+      </c>
+      <c r="H26" s="33">
+        <v>3.72</v>
+      </c>
+      <c r="I26" s="15">
+        <f>$C$12/F26</f>
+        <v>0.19350606756313546</v>
+      </c>
+      <c r="J26" s="15">
+        <f>I26/$C$11</f>
+        <v>10.320323603367225</v>
+      </c>
+      <c r="K26" s="16">
+        <f>J26*(1/(2*PI()))*60</f>
+        <v>98.551830947031306</v>
+      </c>
+      <c r="L26" s="25">
+        <f>E26*$C$13</f>
         <v>0</v>
       </c>
-      <c r="M24" s="32">
-        <f>L24*9.81</f>
+      <c r="M26" s="30">
+        <f>L26*9.81</f>
         <v>0</v>
       </c>
-      <c r="N24" s="24">
-        <f>M24*$C$11*1000</f>
+      <c r="N26" s="22">
+        <f>M26*$C$11*1000</f>
         <v>0</v>
       </c>
-      <c r="O24" s="28">
-        <f>H24*G24</f>
-        <v>1000</v>
-      </c>
-      <c r="P24" s="16">
-        <f>J24*N24</f>
+      <c r="O26" s="26">
+        <f>H26*G26</f>
+        <v>467.26920000000001</v>
+      </c>
+      <c r="P26" s="16">
+        <f>J26*N26</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="6">
-        <f>P24/O24*100</f>
+      <c r="Q26" s="6">
+        <f>P26/O26*100</f>
         <v>0</v>
       </c>
-      <c r="S24" s="25">
+      <c r="S26" s="23">
         <v>51</v>
       </c>
-      <c r="T24" s="26">
+      <c r="T26" s="24">
         <v>7</v>
       </c>
-      <c r="U24" s="24">
-        <f>(($C$12/T24)/$C$11)/(2*3.141)*60</f>
-        <v>53.668076590712694</v>
-      </c>
-      <c r="W24" s="33">
+      <c r="U26" s="22">
+        <f>(($C$12/T26)/$C$11)/(2*3.141)*60</f>
+        <v>42.934461272570154</v>
+      </c>
+      <c r="W26" s="31">
         <v>1</v>
       </c>
-      <c r="X24" s="35"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="53"/>
-      <c r="AC24" s="53"/>
-      <c r="AD24" s="53"/>
-      <c r="AE24" s="54"/>
-      <c r="AK24" s="52"/>
-      <c r="AL24" s="53"/>
-      <c r="AM24" s="53"/>
-      <c r="AN24" s="53"/>
-      <c r="AO24" s="53"/>
-      <c r="AP24" s="54"/>
-      <c r="AS24" s="52"/>
-      <c r="AT24" s="53"/>
-      <c r="AU24" s="53"/>
-      <c r="AV24" s="53"/>
-      <c r="AW24" s="53"/>
-      <c r="AX24" s="54"/>
-    </row>
-    <row r="25" spans="5:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="E25" s="11">
-        <v>3</v>
-      </c>
-      <c r="F25" s="7">
-        <v>3.15</v>
-      </c>
-      <c r="G25" s="11">
-        <v>200</v>
-      </c>
-      <c r="H25" s="13">
-        <v>5</v>
-      </c>
-      <c r="I25" s="15">
-        <f>$C$12/F25</f>
-        <v>0.23412698412698416</v>
-      </c>
-      <c r="J25" s="15">
-        <f>I25/$C$11</f>
-        <v>12.486772486772489</v>
-      </c>
-      <c r="K25" s="16">
-        <f>J25*(1/(2*PI()))*60</f>
-        <v>119.2398938720232</v>
-      </c>
-      <c r="L25" s="27">
-        <f>E25*$C$13</f>
-        <v>0.126</v>
-      </c>
-      <c r="M25" s="27">
-        <f>L25*9.81</f>
-        <v>1.2360600000000002</v>
-      </c>
-      <c r="N25" s="15">
-        <f>M25*$C$11*1000</f>
-        <v>23.176125000000003</v>
-      </c>
-      <c r="O25" s="28">
-        <f t="shared" ref="O25:O34" si="9">H25*G25</f>
-        <v>1000</v>
-      </c>
-      <c r="P25" s="16">
-        <f>J25*N25</f>
-        <v>289.3950000000001</v>
-      </c>
-      <c r="Q25" s="6">
-        <f>P25/O25*100</f>
-        <v>28.939500000000006</v>
-      </c>
-      <c r="S25" s="22">
-        <f>255*0.4</f>
-        <v>102</v>
-      </c>
-      <c r="T25" s="4">
-        <v>3</v>
-      </c>
-      <c r="U25" s="15">
-        <f>(($C$12/T25)/$C$11)/(2*3.141)*60</f>
-        <v>125.22551204499629</v>
-      </c>
-      <c r="W25" s="21">
-        <v>2</v>
-      </c>
-      <c r="X25" s="13"/>
-    </row>
-    <row r="26" spans="5:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="E26" s="11">
-        <v>6</v>
-      </c>
-      <c r="F26" s="7">
-        <v>3.38</v>
-      </c>
-      <c r="G26" s="11">
-        <v>280</v>
-      </c>
-      <c r="H26" s="13">
-        <v>5</v>
-      </c>
-      <c r="I26" s="15">
-        <f t="shared" ref="I26:I34" si="10">$C$12/F26</f>
-        <v>0.21819526627218938</v>
-      </c>
-      <c r="J26" s="15">
-        <f t="shared" ref="J26:J34" si="11">I26/$C$11</f>
-        <v>11.6370808678501</v>
-      </c>
-      <c r="K26" s="16">
-        <f t="shared" ref="K26:K34" si="12">J26*(1/(2*PI()))*60</f>
-        <v>111.12593659670802</v>
-      </c>
-      <c r="L26" s="27">
-        <f t="shared" ref="L26:L34" si="13">E26*$C$13</f>
-        <v>0.252</v>
-      </c>
-      <c r="M26" s="27">
-        <f t="shared" ref="M26:M34" si="14">L26*9.81</f>
-        <v>2.4721200000000003</v>
-      </c>
-      <c r="N26" s="15">
-        <f t="shared" ref="N26:N34" si="15">M26*$C$11*1000</f>
-        <v>46.352250000000005</v>
-      </c>
-      <c r="O26" s="28">
-        <f t="shared" si="9"/>
-        <v>1400</v>
-      </c>
-      <c r="P26" s="16">
-        <f t="shared" ref="P26:P34" si="16">J26*N26</f>
-        <v>539.40488165680483</v>
-      </c>
-      <c r="Q26" s="6">
-        <f t="shared" ref="Q26:Q34" si="17">P26/O26*100</f>
-        <v>38.528920118343201</v>
-      </c>
-      <c r="S26" s="22">
-        <f>255*0.6</f>
-        <v>153</v>
-      </c>
-      <c r="T26" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="U26" s="15">
-        <f>(($C$12/T26)/$C$11)/(2*3.141)*60</f>
-        <v>208.70918674166046</v>
-      </c>
-      <c r="W26" s="21">
-        <v>3</v>
-      </c>
-      <c r="X26" s="13"/>
+      <c r="X26" s="33"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="41"/>
+      <c r="AB26" s="41"/>
+      <c r="AC26" s="41"/>
+      <c r="AD26" s="41"/>
+      <c r="AE26" s="42"/>
+      <c r="AK26" s="40"/>
+      <c r="AL26" s="41"/>
+      <c r="AM26" s="41"/>
+      <c r="AN26" s="41"/>
+      <c r="AO26" s="41"/>
+      <c r="AP26" s="42"/>
+      <c r="AS26" s="40"/>
+      <c r="AT26" s="41"/>
+      <c r="AU26" s="41"/>
+      <c r="AV26" s="41"/>
+      <c r="AW26" s="41"/>
+      <c r="AX26" s="42"/>
     </row>
     <row r="27" spans="5:50" x14ac:dyDescent="0.55000000000000004">
       <c r="E27" s="11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F27" s="7">
-        <v>3.45</v>
+        <v>3.4089999999999998</v>
       </c>
       <c r="G27" s="11">
-        <v>300</v>
+        <v>117.79</v>
       </c>
       <c r="H27" s="13">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="I27" s="15">
-        <f t="shared" si="10"/>
-        <v>0.21376811594202899</v>
+        <f t="shared" ref="I27:I35" si="25">$C$12/F27</f>
+        <v>0.17307128190085069</v>
       </c>
       <c r="J27" s="15">
-        <f t="shared" si="11"/>
-        <v>11.40096618357488</v>
+        <f t="shared" ref="J27:J35" si="26">I27/$C$11</f>
+        <v>9.2304683680453703</v>
       </c>
       <c r="K27" s="16">
-        <f t="shared" si="12"/>
-        <v>108.87120744836899</v>
-      </c>
-      <c r="L27" s="27">
-        <f t="shared" si="13"/>
-        <v>0.378</v>
-      </c>
-      <c r="M27" s="27">
-        <f t="shared" si="14"/>
-        <v>3.70818</v>
+        <f t="shared" ref="K27:K35" si="27">J27*(1/(2*PI()))*60</f>
+        <v>88.144480069668063</v>
+      </c>
+      <c r="L27" s="25">
+        <f t="shared" ref="L27:L35" si="28">E27*$C$13</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="M27" s="25">
+        <f t="shared" ref="M27:M35" si="29">L27*9.81</f>
+        <v>0.41202000000000005</v>
       </c>
       <c r="N27" s="15">
-        <f t="shared" si="15"/>
-        <v>69.528374999999997</v>
-      </c>
-      <c r="O27" s="28">
-        <f t="shared" si="9"/>
-        <v>1500</v>
+        <f t="shared" ref="N27:N35" si="30">M27*$C$11*1000</f>
+        <v>7.7253750000000005</v>
+      </c>
+      <c r="O27" s="26">
+        <f t="shared" ref="O27:O35" si="31">H27*G27</f>
+        <v>447.60199999999998</v>
       </c>
       <c r="P27" s="16">
-        <f t="shared" si="16"/>
-        <v>792.69065217391312</v>
+        <f t="shared" ref="P27:P35" si="32">J27*N27</f>
+        <v>71.308829568788511</v>
       </c>
       <c r="Q27" s="6">
-        <f t="shared" si="17"/>
-        <v>52.846043478260874</v>
-      </c>
-      <c r="S27" s="22">
-        <f>255*0.8</f>
-        <v>204</v>
+        <f t="shared" ref="Q27:Q35" si="33">P27/O27*100</f>
+        <v>15.931302712853945</v>
+      </c>
+      <c r="S27" s="20">
+        <f>255*0.6</f>
+        <v>153</v>
       </c>
       <c r="T27" s="4">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="U27" s="15">
         <f>(($C$12/T27)/$C$11)/(2*3.141)*60</f>
-        <v>268.34038295356351</v>
-      </c>
-      <c r="W27" s="21">
-        <v>4</v>
+        <v>166.96734939332836</v>
+      </c>
+      <c r="W27" s="19">
+        <v>3</v>
       </c>
       <c r="X27" s="13"/>
     </row>
     <row r="28" spans="5:50" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="11">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F28" s="7">
-        <v>3.56</v>
+        <v>3.8450000000000002</v>
       </c>
       <c r="G28" s="11">
-        <v>340</v>
+        <v>159.82</v>
       </c>
       <c r="H28" s="13">
-        <v>5</v>
+        <v>3.36</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="10"/>
-        <v>0.20716292134831463</v>
+        <f t="shared" si="25"/>
+        <v>0.15344603381014302</v>
       </c>
       <c r="J28" s="15">
-        <f t="shared" si="11"/>
-        <v>11.04868913857678</v>
+        <f t="shared" si="26"/>
+        <v>8.183788469874294</v>
       </c>
       <c r="K28" s="16">
-        <f t="shared" si="12"/>
-        <v>105.50720946541378</v>
-      </c>
-      <c r="L28" s="27">
-        <f t="shared" si="13"/>
-        <v>0.504</v>
-      </c>
-      <c r="M28" s="27">
-        <f t="shared" si="14"/>
-        <v>4.9442400000000006</v>
+        <f t="shared" si="27"/>
+        <v>78.149423291937154</v>
+      </c>
+      <c r="L28" s="25">
+        <f t="shared" si="28"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="M28" s="25">
+        <f t="shared" si="29"/>
+        <v>0.82404000000000011</v>
       </c>
       <c r="N28" s="15">
-        <f t="shared" si="15"/>
-        <v>92.70450000000001</v>
-      </c>
-      <c r="O28" s="28">
-        <f t="shared" si="9"/>
-        <v>1700</v>
+        <f t="shared" si="30"/>
+        <v>15.450750000000001</v>
+      </c>
+      <c r="O28" s="26">
+        <f t="shared" si="31"/>
+        <v>536.99519999999995</v>
       </c>
       <c r="P28" s="16">
-        <f t="shared" si="16"/>
-        <v>1024.2632022471912</v>
+        <f t="shared" si="32"/>
+        <v>126.44566970091026</v>
       </c>
       <c r="Q28" s="6">
-        <f t="shared" si="17"/>
-        <v>60.250776602775957</v>
-      </c>
-      <c r="S28" s="23">
-        <v>255</v>
-      </c>
-      <c r="T28" s="5">
-        <v>1</v>
-      </c>
-      <c r="U28" s="17">
+        <f t="shared" si="33"/>
+        <v>23.546890121347502</v>
+      </c>
+      <c r="S28" s="20">
+        <f>255*0.8</f>
+        <v>204</v>
+      </c>
+      <c r="T28" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="U28" s="15">
         <f>(($C$12/T28)/$C$11)/(2*3.141)*60</f>
-        <v>375.67653613498891</v>
-      </c>
-      <c r="W28" s="21">
-        <v>5</v>
+        <v>214.67230636285078</v>
+      </c>
+      <c r="W28" s="19">
+        <v>4</v>
       </c>
       <c r="X28" s="13"/>
     </row>
     <row r="29" spans="5:50" x14ac:dyDescent="0.55000000000000004">
       <c r="E29" s="11">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F29" s="7">
-        <v>3.95</v>
+        <v>4.5190000000000001</v>
       </c>
       <c r="G29" s="11">
-        <v>375</v>
+        <v>188.66</v>
       </c>
       <c r="H29" s="13">
+        <v>3.06</v>
+      </c>
+      <c r="I29" s="15">
+        <f>$C$12/F29</f>
+        <v>0.13055985837574682</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" si="26"/>
+        <v>6.9631924467064978</v>
+      </c>
+      <c r="K29" s="16">
+        <f t="shared" si="27"/>
+        <v>66.493589855609287</v>
+      </c>
+      <c r="L29" s="25">
+        <f t="shared" si="28"/>
+        <v>0.126</v>
+      </c>
+      <c r="M29" s="25">
+        <f t="shared" si="29"/>
+        <v>1.2360600000000002</v>
+      </c>
+      <c r="N29" s="15">
+        <f t="shared" si="30"/>
+        <v>23.176125000000003</v>
+      </c>
+      <c r="O29" s="26">
+        <f t="shared" si="31"/>
+        <v>577.29960000000005</v>
+      </c>
+      <c r="P29" s="16">
+        <f t="shared" si="32"/>
+        <v>161.37981854392564</v>
+      </c>
+      <c r="Q29" s="6">
+        <f t="shared" si="33"/>
+        <v>27.954257814127299</v>
+      </c>
+      <c r="S29" s="21">
+        <v>255</v>
+      </c>
+      <c r="T29" s="5">
+        <v>1</v>
+      </c>
+      <c r="U29" s="17">
+        <f>(($C$12/T29)/$C$11)/(2*3.141)*60</f>
+        <v>300.54122890799107</v>
+      </c>
+      <c r="W29" s="19">
         <v>5</v>
-      </c>
-      <c r="I29" s="15">
-        <f t="shared" si="10"/>
-        <v>0.18670886075949367</v>
-      </c>
-      <c r="J29" s="15">
-        <f t="shared" si="11"/>
-        <v>9.9578059071729967</v>
-      </c>
-      <c r="K29" s="16">
-        <f t="shared" si="12"/>
-        <v>95.090041948575447</v>
-      </c>
-      <c r="L29" s="27">
-        <f t="shared" si="13"/>
-        <v>0.63</v>
-      </c>
-      <c r="M29" s="27">
-        <f t="shared" si="14"/>
-        <v>6.1803000000000008</v>
-      </c>
-      <c r="N29" s="15">
-        <f t="shared" si="15"/>
-        <v>115.88062500000001</v>
-      </c>
-      <c r="O29" s="28">
-        <f t="shared" si="9"/>
-        <v>1875</v>
-      </c>
-      <c r="P29" s="16">
-        <f t="shared" si="16"/>
-        <v>1153.9167721518988</v>
-      </c>
-      <c r="Q29" s="6">
-        <f t="shared" si="17"/>
-        <v>61.54222784810127</v>
-      </c>
-      <c r="W29" s="21">
-        <v>6</v>
       </c>
       <c r="X29" s="13"/>
     </row>
     <row r="30" spans="5:50" x14ac:dyDescent="0.55000000000000004">
       <c r="E30" s="11">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F30" s="7">
-        <v>4.16</v>
+        <v>5.3929999999999998</v>
       </c>
       <c r="G30" s="11">
-        <v>430</v>
+        <v>214.08</v>
       </c>
       <c r="H30" s="13">
-        <v>5</v>
+        <v>2.81</v>
       </c>
       <c r="I30" s="15">
-        <f t="shared" si="10"/>
-        <v>0.17728365384615385</v>
+        <f>$C$12/F30</f>
+        <v>0.10940107546819952</v>
       </c>
       <c r="J30" s="15">
-        <f t="shared" si="11"/>
-        <v>9.4551282051282062</v>
+        <f t="shared" si="26"/>
+        <v>5.8347240249706411</v>
       </c>
       <c r="K30" s="16">
-        <f t="shared" si="12"/>
-        <v>90.289823484825249</v>
-      </c>
-      <c r="L30" s="27">
-        <f t="shared" si="13"/>
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="M30" s="27">
-        <f t="shared" si="14"/>
-        <v>7.4163600000000001</v>
+        <f t="shared" si="27"/>
+        <v>55.717510209067015</v>
+      </c>
+      <c r="L30" s="25">
+        <f t="shared" si="28"/>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="M30" s="25">
+        <f t="shared" si="29"/>
+        <v>1.6480800000000002</v>
       </c>
       <c r="N30" s="15">
-        <f t="shared" si="15"/>
-        <v>139.05674999999999</v>
-      </c>
-      <c r="O30" s="28">
-        <f t="shared" si="9"/>
-        <v>2150</v>
+        <f t="shared" si="30"/>
+        <v>30.901500000000002</v>
+      </c>
+      <c r="O30" s="26">
+        <f t="shared" si="31"/>
+        <v>601.56479999999999</v>
       </c>
       <c r="P30" s="16">
-        <f t="shared" si="16"/>
-        <v>1314.7993990384616</v>
+        <f t="shared" si="32"/>
+        <v>180.30172445763029</v>
       </c>
       <c r="Q30" s="6">
-        <f t="shared" si="17"/>
-        <v>61.153460420393571</v>
-      </c>
-      <c r="W30" s="21">
-        <v>7</v>
+        <f t="shared" si="33"/>
+        <v>29.972120120331226</v>
+      </c>
+      <c r="W30" s="19">
+        <v>6</v>
       </c>
       <c r="X30" s="13"/>
     </row>
     <row r="31" spans="5:50" x14ac:dyDescent="0.55000000000000004">
       <c r="E31" s="11">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F31" s="7">
-        <v>5.03</v>
+        <v>6.5650000000000004</v>
       </c>
       <c r="G31" s="11">
-        <v>540</v>
+        <v>243.4</v>
       </c>
       <c r="H31" s="13">
-        <v>5</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="I31" s="15">
-        <f t="shared" si="10"/>
-        <v>0.14662027833001989</v>
+        <f t="shared" si="25"/>
+        <v>8.9870525514089861E-2</v>
       </c>
       <c r="J31" s="15">
-        <f t="shared" si="11"/>
-        <v>7.8197481776010616</v>
+        <f t="shared" si="26"/>
+        <v>4.7930946940847932</v>
       </c>
       <c r="K31" s="16">
-        <f t="shared" si="12"/>
-        <v>74.673094571942954</v>
-      </c>
-      <c r="L31" s="27">
-        <f t="shared" si="13"/>
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="M31" s="27">
-        <f t="shared" si="14"/>
-        <v>8.6524200000000011</v>
+        <f t="shared" si="27"/>
+        <v>45.770682796267849</v>
+      </c>
+      <c r="L31" s="25">
+        <f t="shared" si="28"/>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="M31" s="25">
+        <f t="shared" si="29"/>
+        <v>2.0601000000000003</v>
       </c>
       <c r="N31" s="15">
-        <f t="shared" si="15"/>
-        <v>162.23287500000004</v>
-      </c>
-      <c r="O31" s="28">
-        <f t="shared" si="9"/>
-        <v>2700</v>
+        <f t="shared" si="30"/>
+        <v>38.626875000000005</v>
+      </c>
+      <c r="O31" s="26">
+        <f t="shared" si="31"/>
+        <v>606.06600000000003</v>
       </c>
       <c r="P31" s="16">
-        <f t="shared" si="16"/>
-        <v>1268.6202286282312</v>
+        <f t="shared" si="32"/>
+        <v>185.14226961157658</v>
       </c>
       <c r="Q31" s="6">
-        <f t="shared" si="17"/>
-        <v>46.985934393638189</v>
-      </c>
-      <c r="W31" s="21">
-        <v>8</v>
+        <f t="shared" si="33"/>
+        <v>30.548202606906933</v>
+      </c>
+      <c r="W31" s="19">
+        <v>7</v>
       </c>
       <c r="X31" s="13"/>
     </row>
     <row r="32" spans="5:50" x14ac:dyDescent="0.55000000000000004">
       <c r="E32" s="11">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F32" s="7">
-        <v>5.5</v>
+        <v>7.68</v>
       </c>
       <c r="G32" s="11">
-        <v>620</v>
+        <v>273.22000000000003</v>
       </c>
       <c r="H32" s="13">
-        <v>5</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="I32" s="15">
-        <f t="shared" si="10"/>
-        <v>0.13409090909090909</v>
+        <f t="shared" si="25"/>
+        <v>7.6822916666666671E-2</v>
       </c>
       <c r="J32" s="15">
-        <f t="shared" si="11"/>
-        <v>7.1515151515151523</v>
+        <f t="shared" si="26"/>
+        <v>4.0972222222222223</v>
       </c>
       <c r="K32" s="16">
-        <f t="shared" si="12"/>
-        <v>68.291939217613276</v>
-      </c>
-      <c r="L32" s="27">
-        <f t="shared" si="13"/>
-        <v>1.008</v>
-      </c>
-      <c r="M32" s="27">
-        <f t="shared" si="14"/>
-        <v>9.8884800000000013</v>
+        <f t="shared" si="27"/>
+        <v>39.125590176757605</v>
+      </c>
+      <c r="L32" s="25">
+        <f t="shared" si="28"/>
+        <v>0.252</v>
+      </c>
+      <c r="M32" s="25">
+        <f t="shared" si="29"/>
+        <v>2.4721200000000003</v>
       </c>
       <c r="N32" s="15">
-        <f t="shared" si="15"/>
-        <v>185.40900000000002</v>
-      </c>
-      <c r="O32" s="28">
-        <f t="shared" si="9"/>
-        <v>3100</v>
+        <f t="shared" si="30"/>
+        <v>46.352250000000005</v>
+      </c>
+      <c r="O32" s="26">
+        <f t="shared" si="31"/>
+        <v>595.6196000000001</v>
       </c>
       <c r="P32" s="16">
-        <f t="shared" si="16"/>
-        <v>1325.955272727273</v>
+        <f t="shared" si="32"/>
+        <v>189.91546875000003</v>
       </c>
       <c r="Q32" s="6">
-        <f t="shared" si="17"/>
-        <v>42.77275073313784</v>
-      </c>
-      <c r="W32" s="21">
-        <v>9</v>
+        <f t="shared" si="33"/>
+        <v>31.88536252836542</v>
+      </c>
+      <c r="W32" s="19">
+        <v>8</v>
       </c>
       <c r="X32" s="13"/>
     </row>
     <row r="33" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" s="11">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F33" s="7">
-        <v>6.26</v>
+        <v>10.638999999999999</v>
       </c>
       <c r="G33" s="11">
-        <v>690</v>
+        <v>281.52</v>
       </c>
       <c r="H33" s="13">
-        <v>5</v>
+        <v>2.11</v>
       </c>
       <c r="I33" s="15">
-        <f t="shared" si="10"/>
-        <v>0.11781150159744411</v>
+        <f t="shared" si="25"/>
+        <v>5.5456339881567819E-2</v>
       </c>
       <c r="J33" s="15">
-        <f t="shared" si="11"/>
-        <v>6.2832800851970196</v>
+        <f t="shared" si="26"/>
+        <v>2.9576714603502836</v>
       </c>
       <c r="K33" s="16">
-        <f t="shared" si="12"/>
-        <v>60.000905063398264</v>
-      </c>
-      <c r="L33" s="27">
-        <f t="shared" si="13"/>
-        <v>1.1340000000000001</v>
-      </c>
-      <c r="M33" s="27">
-        <f t="shared" si="14"/>
-        <v>11.124540000000001</v>
+        <f t="shared" si="27"/>
+        <v>28.243681977394345</v>
+      </c>
+      <c r="L33" s="25">
+        <f t="shared" si="28"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="M33" s="25">
+        <f t="shared" si="29"/>
+        <v>2.8841400000000004</v>
       </c>
       <c r="N33" s="15">
-        <f t="shared" si="15"/>
-        <v>208.58512500000001</v>
-      </c>
-      <c r="O33" s="28">
-        <f t="shared" si="9"/>
-        <v>3450</v>
+        <f t="shared" si="30"/>
+        <v>54.077625000000005</v>
+      </c>
+      <c r="O33" s="26">
+        <f t="shared" si="31"/>
+        <v>594.0071999999999</v>
       </c>
       <c r="P33" s="16">
-        <f t="shared" si="16"/>
-        <v>1310.5987619808311</v>
+        <f t="shared" si="32"/>
+        <v>159.94384810602503</v>
       </c>
       <c r="Q33" s="6">
-        <f t="shared" si="17"/>
-        <v>37.988369912487855</v>
-      </c>
-      <c r="W33" s="34">
-        <v>10</v>
-      </c>
-      <c r="X33" s="14"/>
+        <f t="shared" si="33"/>
+        <v>26.926247376466993</v>
+      </c>
+      <c r="W33" s="19">
+        <v>9</v>
+      </c>
+      <c r="X33" s="13"/>
     </row>
     <row r="34" spans="5:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="E34" s="12">
-        <v>30</v>
-      </c>
-      <c r="F34" s="8" t="s">
+      <c r="E34" s="11">
+        <v>8</v>
+      </c>
+      <c r="F34" s="7">
+        <v>16.202000000000002</v>
+      </c>
+      <c r="G34" s="11">
+        <v>332.36</v>
+      </c>
+      <c r="H34" s="13">
+        <v>1.59</v>
+      </c>
+      <c r="I34" s="15">
+        <f t="shared" si="25"/>
+        <v>3.6415257375632636E-2</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" si="26"/>
+        <v>1.9421470600337407</v>
+      </c>
+      <c r="K34" s="16">
+        <f t="shared" si="27"/>
+        <v>18.546138288945709</v>
+      </c>
+      <c r="L34" s="25">
+        <f t="shared" si="28"/>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="M34" s="25">
+        <f t="shared" si="29"/>
+        <v>3.2961600000000004</v>
+      </c>
+      <c r="N34" s="15">
+        <f t="shared" si="30"/>
+        <v>61.803000000000004</v>
+      </c>
+      <c r="O34" s="26">
+        <f t="shared" si="31"/>
+        <v>528.45240000000001</v>
+      </c>
+      <c r="P34" s="16">
+        <f t="shared" si="32"/>
+        <v>120.03051475126529</v>
+      </c>
+      <c r="Q34" s="6">
+        <f t="shared" si="33"/>
+        <v>22.713590618807917</v>
+      </c>
+      <c r="W34" s="32">
+        <v>10</v>
+      </c>
+      <c r="X34" s="14"/>
+    </row>
+    <row r="35" spans="5:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="E35" s="12">
+        <v>9</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G34" s="12">
-        <v>750</v>
-      </c>
-      <c r="H34" s="14">
-        <v>5</v>
-      </c>
-      <c r="I34" s="17" t="e">
-        <f t="shared" si="10"/>
+      <c r="G35" s="12">
+        <v>488.27</v>
+      </c>
+      <c r="H35" s="14">
+        <v>0</v>
+      </c>
+      <c r="I35" s="17" t="e">
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J34" s="17" t="e">
-        <f t="shared" si="11"/>
+      <c r="J35" s="17" t="e">
+        <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K34" s="18" t="e">
-        <f t="shared" si="12"/>
+      <c r="K35" s="18" t="e">
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L34" s="30">
-        <f t="shared" si="13"/>
-        <v>1.26</v>
-      </c>
-      <c r="M34" s="30">
-        <f t="shared" si="14"/>
-        <v>12.360600000000002</v>
-      </c>
-      <c r="N34" s="17">
-        <f t="shared" si="15"/>
-        <v>231.76125000000002</v>
-      </c>
-      <c r="O34" s="18">
-        <f t="shared" si="9"/>
-        <v>3750</v>
-      </c>
-      <c r="P34" s="18" t="e">
-        <f t="shared" si="16"/>
+      <c r="L35" s="28">
+        <f t="shared" si="28"/>
+        <v>0.378</v>
+      </c>
+      <c r="M35" s="28">
+        <f t="shared" si="29"/>
+        <v>3.70818</v>
+      </c>
+      <c r="N35" s="17">
+        <f t="shared" si="30"/>
+        <v>69.528374999999997</v>
+      </c>
+      <c r="O35" s="18">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="18" t="e">
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Q34" s="9" t="e">
-        <f t="shared" si="17"/>
+      <c r="Q35" s="9" t="e">
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="Z22:AE24"/>
-    <mergeCell ref="AS22:AX24"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="AK8:AP10"/>
-    <mergeCell ref="AS8:AX10"/>
-    <mergeCell ref="AK22:AP24"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="E7:Q7"/>
-    <mergeCell ref="E22:Q22"/>
+    <mergeCell ref="E24:Q24"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="J4:N4"/>
+    <mergeCell ref="Z24:AE26"/>
+    <mergeCell ref="AS24:AX26"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="AK8:AP10"/>
+    <mergeCell ref="AS8:AX10"/>
+    <mergeCell ref="AK24:AP26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Lab 1 - Results Template.xlsx
+++ b/Lab 1 - Results Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mines0-my.sharepoint.com/personal/tessahaws_mines_edu/Documents/Years/Senior/Fall/Robotics/Labs/IntroToRobotics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="331" documentId="8_{2817B20B-292F-46DE-8733-EDFD4BC374F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{356C3D19-B8D7-464F-8730-E7FD5A2B479D}"/>
+  <xr:revisionPtr revIDLastSave="431" documentId="8_{2817B20B-292F-46DE-8733-EDFD4BC374F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{160129E4-CFB6-4CA7-998F-33A732F52DA8}"/>
   <bookViews>
-    <workbookView xWindow="11442" yWindow="0" windowWidth="11676" windowHeight="13038" xr2:uid="{EA4EB6AE-EF90-46D8-9FD0-3C84C7D17E0F}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{EA4EB6AE-EF90-46D8-9FD0-3C84C7D17E0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -553,7 +553,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Radius of Pulley Wheel (m):</t>
   </si>
@@ -706,6 +706,9 @@
   </si>
   <si>
     <t>dark grey</t>
+  </si>
+  <si>
+    <t>*Using 255 PWM</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1007,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1045,6 +1048,41 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1081,42 +1119,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2850,10 +2852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80C9C28-A187-4D77-9D7A-490A5A1079C7}">
-  <dimension ref="A1:AX35"/>
+  <dimension ref="A1:AX36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2868,93 +2870,98 @@
     <col min="14" max="14" width="13.578125" customWidth="1"/>
     <col min="15" max="16" width="11.83984375" customWidth="1"/>
     <col min="17" max="17" width="13.26171875" customWidth="1"/>
+    <col min="19" max="19" width="13.83984375" customWidth="1"/>
+    <col min="20" max="20" width="11.734375" customWidth="1"/>
     <col min="23" max="23" width="14.83984375" customWidth="1"/>
     <col min="24" max="24" width="16.15625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="20.399999999999999" x14ac:dyDescent="0.75">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:50" ht="20.399999999999999" x14ac:dyDescent="0.75">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="4" spans="1:50" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52"/>
-      <c r="J4" s="50" t="s">
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="45"/>
+      <c r="J4" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="52"/>
-      <c r="P4" s="50" t="s">
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="45"/>
+      <c r="P4" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="52"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="45"/>
     </row>
     <row r="6" spans="1:50" ht="23.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="46" t="s">
         <v>39</v>
       </c>
       <c r="K6" t="s">
         <v>40</v>
       </c>
+      <c r="W6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:50" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="54"/>
-      <c r="E7" s="47" t="s">
+      <c r="B7" s="47"/>
+      <c r="E7" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="48"/>
-      <c r="S7" s="43" t="s">
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="41"/>
+      <c r="S7" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="T7" s="45"/>
-      <c r="U7" s="44"/>
-      <c r="W7" s="43" t="s">
+      <c r="T7" s="60"/>
+      <c r="U7" s="59"/>
+      <c r="W7" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="X7" s="44"/>
+      <c r="X7" s="59"/>
     </row>
     <row r="8" spans="1:50" ht="28.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="55"/>
+      <c r="B8" s="48"/>
       <c r="E8" s="10" t="s">
         <v>27</v>
       </c>
@@ -3009,22 +3016,22 @@
       <c r="X8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AK8" s="34" t="s">
+      <c r="AK8" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="35"/>
-      <c r="AO8" s="35"/>
-      <c r="AP8" s="36"/>
-      <c r="AS8" s="34" t="s">
+      <c r="AL8" s="50"/>
+      <c r="AM8" s="50"/>
+      <c r="AN8" s="50"/>
+      <c r="AO8" s="50"/>
+      <c r="AP8" s="51"/>
+      <c r="AS8" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="AT8" s="35"/>
-      <c r="AU8" s="35"/>
-      <c r="AV8" s="35"/>
-      <c r="AW8" s="35"/>
-      <c r="AX8" s="36"/>
+      <c r="AT8" s="50"/>
+      <c r="AU8" s="50"/>
+      <c r="AV8" s="50"/>
+      <c r="AW8" s="50"/>
+      <c r="AX8" s="51"/>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="E9" s="11">
@@ -3079,34 +3086,36 @@
         <v>51</v>
       </c>
       <c r="T9" s="24">
-        <v>16</v>
+        <v>54.956000000000003</v>
       </c>
       <c r="U9" s="22">
         <f>($C$12/T9)*(1/$C$11)*(1/(2*PI()))*60</f>
-        <v>18.780283284843648</v>
+        <v>5.4677293208657538</v>
       </c>
       <c r="W9" s="31">
         <v>1</v>
       </c>
-      <c r="X9" s="33"/>
-      <c r="AK9" s="37"/>
-      <c r="AL9" s="38"/>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="38"/>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="39"/>
-      <c r="AS9" s="37"/>
-      <c r="AT9" s="38"/>
-      <c r="AU9" s="38"/>
-      <c r="AV9" s="38"/>
-      <c r="AW9" s="38"/>
-      <c r="AX9" s="39"/>
+      <c r="X9" s="33">
+        <v>6.7629999999999999</v>
+      </c>
+      <c r="AK9" s="52"/>
+      <c r="AL9" s="53"/>
+      <c r="AM9" s="53"/>
+      <c r="AN9" s="53"/>
+      <c r="AO9" s="53"/>
+      <c r="AP9" s="54"/>
+      <c r="AS9" s="52"/>
+      <c r="AT9" s="53"/>
+      <c r="AU9" s="53"/>
+      <c r="AV9" s="53"/>
+      <c r="AW9" s="53"/>
+      <c r="AX9" s="54"/>
     </row>
     <row r="10" spans="1:50" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="48"/>
+      <c r="C10" s="41"/>
       <c r="E10" s="11">
         <v>1</v>
       </c>
@@ -3160,28 +3169,30 @@
         <v>102</v>
       </c>
       <c r="T10" s="4">
-        <v>7</v>
+        <v>11.531000000000001</v>
       </c>
       <c r="U10" s="15">
         <f>($C$12/T10)*(1/$C$11)*(1/(2*PI()))*60</f>
-        <v>42.926361793928344</v>
+        <v>26.058844207570754</v>
       </c>
       <c r="W10" s="19">
         <v>2</v>
       </c>
-      <c r="X10" s="13"/>
-      <c r="AK10" s="40"/>
-      <c r="AL10" s="41"/>
-      <c r="AM10" s="41"/>
-      <c r="AN10" s="41"/>
-      <c r="AO10" s="41"/>
-      <c r="AP10" s="42"/>
-      <c r="AS10" s="40"/>
-      <c r="AT10" s="41"/>
-      <c r="AU10" s="41"/>
-      <c r="AV10" s="41"/>
-      <c r="AW10" s="41"/>
-      <c r="AX10" s="42"/>
+      <c r="X10" s="13">
+        <v>6.81</v>
+      </c>
+      <c r="AK10" s="55"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="56"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="56"/>
+      <c r="AP10" s="57"/>
+      <c r="AS10" s="55"/>
+      <c r="AT10" s="56"/>
+      <c r="AU10" s="56"/>
+      <c r="AV10" s="56"/>
+      <c r="AW10" s="56"/>
+      <c r="AX10" s="57"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1" t="s">
@@ -3243,16 +3254,18 @@
         <v>153</v>
       </c>
       <c r="T11" s="4">
-        <v>4</v>
+        <v>7.54</v>
       </c>
       <c r="U11" s="15">
         <f>($C$12/T11)*(1/$C$11)*(1/(2*PI()))*60</f>
-        <v>75.121133139374592</v>
+        <v>39.852060020888388</v>
       </c>
       <c r="W11" s="19">
         <v>3</v>
       </c>
-      <c r="X11" s="13"/>
+      <c r="X11" s="13">
+        <v>6.85</v>
+      </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1" t="s">
@@ -3314,16 +3327,18 @@
         <v>204</v>
       </c>
       <c r="T12" s="4">
-        <v>2.75</v>
+        <v>6.2450000000000001</v>
       </c>
       <c r="U12" s="15">
         <f>($C$12/T12)*(1/$C$11)*(1/(2*PI()))*60</f>
-        <v>109.26710274818124</v>
+        <v>48.116018023618636</v>
       </c>
       <c r="W12" s="19">
         <v>4</v>
       </c>
-      <c r="X12" s="13"/>
+      <c r="X12" s="13">
+        <v>6.6660000000000004</v>
+      </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2" t="s">
@@ -3384,16 +3399,18 @@
         <v>255</v>
       </c>
       <c r="T13" s="5">
-        <v>2</v>
+        <v>4.915</v>
       </c>
       <c r="U13" s="17">
         <f>($C$12/T13)*(1/$C$11)*(1/(2*PI()))*60</f>
-        <v>150.24226627874918</v>
+        <v>61.136222290437118</v>
       </c>
       <c r="W13" s="19">
         <v>5</v>
       </c>
-      <c r="X13" s="13"/>
+      <c r="X13" s="13">
+        <v>6.8760000000000003</v>
+      </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" s="11">
@@ -3447,7 +3464,9 @@
       <c r="W14" s="19">
         <v>6</v>
       </c>
-      <c r="X14" s="13"/>
+      <c r="X14" s="13">
+        <v>6.6429999999999998</v>
+      </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" s="11">
@@ -3501,7 +3520,9 @@
       <c r="W15" s="19">
         <v>7</v>
       </c>
-      <c r="X15" s="13"/>
+      <c r="X15" s="13">
+        <v>6.8760000000000003</v>
+      </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" s="11">
@@ -3555,7 +3576,9 @@
       <c r="W16" s="19">
         <v>8</v>
       </c>
-      <c r="X16" s="13"/>
+      <c r="X16" s="13">
+        <v>6.5789999999999997</v>
+      </c>
     </row>
     <row r="17" spans="5:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E17" s="11">
@@ -3609,7 +3632,9 @@
       <c r="W17" s="19">
         <v>9</v>
       </c>
-      <c r="X17" s="13"/>
+      <c r="X17" s="13">
+        <v>6.694</v>
+      </c>
     </row>
     <row r="18" spans="5:50" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" s="11">
@@ -3663,7 +3688,9 @@
       <c r="W18" s="32">
         <v>10</v>
       </c>
-      <c r="X18" s="14"/>
+      <c r="X18" s="14">
+        <v>6.6040000000000001</v>
+      </c>
     </row>
     <row r="19" spans="5:50" x14ac:dyDescent="0.55000000000000004">
       <c r="E19" s="12">
@@ -3766,101 +3793,101 @@
       </c>
     </row>
     <row r="21" spans="5:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="E21" s="56">
+      <c r="E21" s="34">
         <v>12</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F21" s="35">
         <v>34.880000000000003</v>
       </c>
-      <c r="G21" s="56">
+      <c r="G21" s="34">
         <v>318.18</v>
       </c>
-      <c r="H21" s="58">
+      <c r="H21" s="36">
         <v>1.72</v>
       </c>
-      <c r="I21" s="59">
+      <c r="I21" s="37">
         <f t="shared" si="9"/>
         <v>1.6915137614678898E-2</v>
       </c>
-      <c r="J21" s="59">
+      <c r="J21" s="37">
         <f t="shared" si="10"/>
         <v>0.90214067278287458</v>
       </c>
-      <c r="K21" s="60">
+      <c r="K21" s="38">
         <f t="shared" si="11"/>
         <v>8.6148088462585548</v>
       </c>
-      <c r="L21" s="59">
+      <c r="L21" s="37">
         <f>E21*$C$13</f>
         <v>0.504</v>
       </c>
-      <c r="M21" s="59">
+      <c r="M21" s="37">
         <f t="shared" si="12"/>
         <v>4.9442400000000006</v>
       </c>
-      <c r="N21" s="59">
+      <c r="N21" s="37">
         <f t="shared" si="13"/>
         <v>92.70450000000001</v>
       </c>
-      <c r="O21" s="60">
+      <c r="O21" s="38">
         <f t="shared" si="14"/>
         <v>547.26959999999997</v>
       </c>
-      <c r="P21" s="60">
+      <c r="P21" s="38">
         <f t="shared" si="15"/>
         <v>83.632500000000007</v>
       </c>
-      <c r="Q21" s="61">
+      <c r="Q21" s="3">
         <f t="shared" si="16"/>
         <v>15.281773370930892</v>
       </c>
     </row>
     <row r="22" spans="5:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="E22" s="56">
+      <c r="E22" s="34">
         <v>13</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="56">
+      <c r="G22" s="34">
         <v>489.25</v>
       </c>
-      <c r="H22" s="58">
+      <c r="H22" s="36">
         <v>0</v>
       </c>
-      <c r="I22" s="59" t="e">
+      <c r="I22" s="37" t="e">
         <f t="shared" ref="I22" si="17">$C$12/F22</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J22" s="59" t="e">
+      <c r="J22" s="37" t="e">
         <f t="shared" ref="J22" si="18">I22/$C$11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K22" s="60" t="e">
+      <c r="K22" s="38" t="e">
         <f t="shared" ref="K22" si="19">J22*(1/(2*PI()))*60</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L22" s="59">
+      <c r="L22" s="37">
         <f>E22*$C$13</f>
         <v>0.54600000000000004</v>
       </c>
-      <c r="M22" s="59">
+      <c r="M22" s="37">
         <f t="shared" ref="M22" si="20">L22*9.81</f>
         <v>5.3562600000000007</v>
       </c>
-      <c r="N22" s="59">
+      <c r="N22" s="37">
         <f t="shared" ref="N22" si="21">M22*$C$11*1000</f>
         <v>100.42987500000001</v>
       </c>
-      <c r="O22" s="60">
+      <c r="O22" s="38">
         <f t="shared" ref="O22" si="22">H22*G22</f>
         <v>0</v>
       </c>
-      <c r="P22" s="60" t="e">
+      <c r="P22" s="38" t="e">
         <f t="shared" ref="P22" si="23">J22*N22</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q22" s="61" t="e">
+      <c r="Q22" s="3" t="e">
         <f t="shared" ref="Q22" si="24">P22/O22*100</f>
         <v>#VALUE!</v>
       </c>
@@ -3870,56 +3897,59 @@
       <c r="K23" t="s">
         <v>41</v>
       </c>
+      <c r="W23" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" spans="5:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="48"/>
-      <c r="S24" s="43" t="s">
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="41"/>
+      <c r="S24" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="T24" s="45"/>
-      <c r="U24" s="44"/>
-      <c r="W24" s="43" t="s">
+      <c r="T24" s="60"/>
+      <c r="U24" s="59"/>
+      <c r="W24" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="X24" s="44"/>
-      <c r="Z24" s="34" t="s">
+      <c r="X24" s="59"/>
+      <c r="Z24" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="36"/>
-      <c r="AK24" s="34" t="s">
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="50"/>
+      <c r="AE24" s="51"/>
+      <c r="AK24" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="AL24" s="35"/>
-      <c r="AM24" s="35"/>
-      <c r="AN24" s="35"/>
-      <c r="AO24" s="35"/>
-      <c r="AP24" s="36"/>
-      <c r="AS24" s="34" t="s">
+      <c r="AL24" s="50"/>
+      <c r="AM24" s="50"/>
+      <c r="AN24" s="50"/>
+      <c r="AO24" s="50"/>
+      <c r="AP24" s="51"/>
+      <c r="AS24" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AT24" s="35"/>
-      <c r="AU24" s="35"/>
-      <c r="AV24" s="35"/>
-      <c r="AW24" s="35"/>
-      <c r="AX24" s="36"/>
+      <c r="AT24" s="50"/>
+      <c r="AU24" s="50"/>
+      <c r="AV24" s="50"/>
+      <c r="AW24" s="50"/>
+      <c r="AX24" s="51"/>
     </row>
     <row r="25" spans="5:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E25" s="10" t="s">
@@ -3976,26 +4006,26 @@
       <c r="X25" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Z25" s="37"/>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="38"/>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="38"/>
-      <c r="AE25" s="39"/>
-      <c r="AK25" s="37"/>
-      <c r="AL25" s="38"/>
-      <c r="AM25" s="38"/>
-      <c r="AN25" s="38"/>
-      <c r="AO25" s="38"/>
-      <c r="AP25" s="39"/>
-      <c r="AS25" s="37"/>
-      <c r="AT25" s="38"/>
-      <c r="AU25" s="38"/>
-      <c r="AV25" s="38"/>
-      <c r="AW25" s="38"/>
-      <c r="AX25" s="39"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="53"/>
+      <c r="AC25" s="53"/>
+      <c r="AD25" s="53"/>
+      <c r="AE25" s="54"/>
+      <c r="AK25" s="52"/>
+      <c r="AL25" s="53"/>
+      <c r="AM25" s="53"/>
+      <c r="AN25" s="53"/>
+      <c r="AO25" s="53"/>
+      <c r="AP25" s="54"/>
+      <c r="AS25" s="52"/>
+      <c r="AT25" s="53"/>
+      <c r="AU25" s="53"/>
+      <c r="AV25" s="53"/>
+      <c r="AW25" s="53"/>
+      <c r="AX25" s="54"/>
     </row>
-    <row r="26" spans="5:50" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="5:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E26" s="11">
         <v>0</v>
       </c>
@@ -4048,36 +4078,34 @@
         <v>51</v>
       </c>
       <c r="T26" s="24">
-        <v>7</v>
+        <v>21.241</v>
       </c>
       <c r="U26" s="22">
         <f>(($C$12/T26)/$C$11)/(2*3.141)*60</f>
-        <v>42.934461272570154</v>
-      </c>
-      <c r="W26" s="31">
-        <v>1</v>
-      </c>
-      <c r="X26" s="33"/>
-      <c r="Z26" s="40"/>
-      <c r="AA26" s="41"/>
-      <c r="AB26" s="41"/>
-      <c r="AC26" s="41"/>
-      <c r="AD26" s="41"/>
-      <c r="AE26" s="42"/>
-      <c r="AK26" s="40"/>
-      <c r="AL26" s="41"/>
-      <c r="AM26" s="41"/>
-      <c r="AN26" s="41"/>
-      <c r="AO26" s="41"/>
-      <c r="AP26" s="42"/>
-      <c r="AS26" s="40"/>
-      <c r="AT26" s="41"/>
-      <c r="AU26" s="41"/>
-      <c r="AV26" s="41"/>
-      <c r="AW26" s="41"/>
-      <c r="AX26" s="42"/>
+        <v>14.14910921839796</v>
+      </c>
+      <c r="W26" s="19"/>
+      <c r="X26" s="22"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="53"/>
+      <c r="AC26" s="53"/>
+      <c r="AD26" s="53"/>
+      <c r="AE26" s="54"/>
+      <c r="AK26" s="52"/>
+      <c r="AL26" s="53"/>
+      <c r="AM26" s="53"/>
+      <c r="AN26" s="53"/>
+      <c r="AO26" s="53"/>
+      <c r="AP26" s="54"/>
+      <c r="AS26" s="52"/>
+      <c r="AT26" s="53"/>
+      <c r="AU26" s="53"/>
+      <c r="AV26" s="53"/>
+      <c r="AW26" s="53"/>
+      <c r="AX26" s="54"/>
     </row>
-    <row r="27" spans="5:50" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="5:50" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="E27" s="11">
         <v>1</v>
       </c>
@@ -4091,56 +4119,76 @@
         <v>3.8</v>
       </c>
       <c r="I27" s="15">
-        <f t="shared" ref="I27:I35" si="25">$C$12/F27</f>
+        <f>$C$12/F27</f>
         <v>0.17307128190085069</v>
       </c>
       <c r="J27" s="15">
-        <f t="shared" ref="J27:J35" si="26">I27/$C$11</f>
+        <f>I27/$C$11</f>
         <v>9.2304683680453703</v>
       </c>
       <c r="K27" s="16">
-        <f t="shared" ref="K27:K35" si="27">J27*(1/(2*PI()))*60</f>
+        <f>J27*(1/(2*PI()))*60</f>
         <v>88.144480069668063</v>
       </c>
       <c r="L27" s="25">
-        <f t="shared" ref="L27:L35" si="28">E27*$C$13</f>
+        <f>E27*$C$13</f>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="M27" s="25">
-        <f t="shared" ref="M27:M35" si="29">L27*9.81</f>
+        <f>L27*9.81</f>
         <v>0.41202000000000005</v>
       </c>
       <c r="N27" s="15">
-        <f t="shared" ref="N27:N35" si="30">M27*$C$11*1000</f>
+        <f t="shared" ref="N27:N35" si="25">M27*$C$11*1000</f>
         <v>7.7253750000000005</v>
       </c>
       <c r="O27" s="26">
-        <f t="shared" ref="O27:O35" si="31">H27*G27</f>
+        <f>H27*G27</f>
         <v>447.60199999999998</v>
       </c>
       <c r="P27" s="16">
-        <f t="shared" ref="P27:P35" si="32">J27*N27</f>
+        <f>J27*N27</f>
         <v>71.308829568788511</v>
       </c>
       <c r="Q27" s="6">
-        <f t="shared" ref="Q27:Q35" si="33">P27/O27*100</f>
+        <f>P27/O27*100</f>
         <v>15.931302712853945</v>
       </c>
-      <c r="S27" s="20">
-        <f>255*0.6</f>
-        <v>153</v>
-      </c>
-      <c r="T27" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="U27" s="15">
+      <c r="S27" s="23">
+        <f>255*0.4</f>
+        <v>102</v>
+      </c>
+      <c r="T27" s="24">
+        <v>7.9279999999999999</v>
+      </c>
+      <c r="U27" s="22">
         <f>(($C$12/T27)/$C$11)/(2*3.141)*60</f>
-        <v>166.96734939332836</v>
-      </c>
-      <c r="W27" s="19">
-        <v>3</v>
-      </c>
-      <c r="X27" s="13"/>
+        <v>37.908833111502403</v>
+      </c>
+      <c r="W27" s="31">
+        <v>1</v>
+      </c>
+      <c r="X27" s="33">
+        <v>5.9889999999999999</v>
+      </c>
+      <c r="Z27" s="55"/>
+      <c r="AA27" s="56"/>
+      <c r="AB27" s="56"/>
+      <c r="AC27" s="56"/>
+      <c r="AD27" s="56"/>
+      <c r="AE27" s="57"/>
+      <c r="AK27" s="55"/>
+      <c r="AL27" s="56"/>
+      <c r="AM27" s="56"/>
+      <c r="AN27" s="56"/>
+      <c r="AO27" s="56"/>
+      <c r="AP27" s="57"/>
+      <c r="AS27" s="55"/>
+      <c r="AT27" s="56"/>
+      <c r="AU27" s="56"/>
+      <c r="AV27" s="56"/>
+      <c r="AW27" s="56"/>
+      <c r="AX27" s="57"/>
     </row>
     <row r="28" spans="5:50" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="11">
@@ -4156,56 +4204,58 @@
         <v>3.36</v>
       </c>
       <c r="I28" s="15">
+        <f>$C$12/F28</f>
+        <v>0.15344603381014302</v>
+      </c>
+      <c r="J28" s="15">
+        <f>I28/$C$11</f>
+        <v>8.183788469874294</v>
+      </c>
+      <c r="K28" s="16">
+        <f>J28*(1/(2*PI()))*60</f>
+        <v>78.149423291937154</v>
+      </c>
+      <c r="L28" s="25">
+        <f>E28*$C$13</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="M28" s="25">
+        <f>L28*9.81</f>
+        <v>0.82404000000000011</v>
+      </c>
+      <c r="N28" s="15">
         <f t="shared" si="25"/>
-        <v>0.15344603381014302</v>
-      </c>
-      <c r="J28" s="15">
-        <f t="shared" si="26"/>
-        <v>8.183788469874294</v>
-      </c>
-      <c r="K28" s="16">
-        <f t="shared" si="27"/>
-        <v>78.149423291937154</v>
-      </c>
-      <c r="L28" s="25">
-        <f t="shared" si="28"/>
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="M28" s="25">
-        <f t="shared" si="29"/>
-        <v>0.82404000000000011</v>
-      </c>
-      <c r="N28" s="15">
-        <f t="shared" si="30"/>
         <v>15.450750000000001</v>
       </c>
       <c r="O28" s="26">
-        <f t="shared" si="31"/>
+        <f>H28*G28</f>
         <v>536.99519999999995</v>
       </c>
       <c r="P28" s="16">
-        <f t="shared" si="32"/>
+        <f>J28*N28</f>
         <v>126.44566970091026</v>
       </c>
       <c r="Q28" s="6">
-        <f t="shared" si="33"/>
+        <f>P28/O28*100</f>
         <v>23.546890121347502</v>
       </c>
       <c r="S28" s="20">
-        <f>255*0.8</f>
-        <v>204</v>
+        <f>255*0.6</f>
+        <v>153</v>
       </c>
       <c r="T28" s="4">
-        <v>1.4</v>
+        <v>5.5110000000000001</v>
       </c>
       <c r="U28" s="15">
         <f>(($C$12/T28)/$C$11)/(2*3.141)*60</f>
-        <v>214.67230636285078</v>
+        <v>54.534790221010894</v>
       </c>
       <c r="W28" s="19">
-        <v>4</v>
-      </c>
-      <c r="X28" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="X28" s="13">
+        <v>5.6630000000000003</v>
+      </c>
     </row>
     <row r="29" spans="5:50" x14ac:dyDescent="0.55000000000000004">
       <c r="E29" s="11">
@@ -4225,51 +4275,54 @@
         <v>0.13055985837574682</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="26"/>
+        <f>I29/$C$11</f>
         <v>6.9631924467064978</v>
       </c>
       <c r="K29" s="16">
-        <f t="shared" si="27"/>
+        <f>J29*(1/(2*PI()))*60</f>
         <v>66.493589855609287</v>
       </c>
       <c r="L29" s="25">
-        <f t="shared" si="28"/>
+        <f>E29*$C$13</f>
         <v>0.126</v>
       </c>
       <c r="M29" s="25">
-        <f t="shared" si="29"/>
+        <f>L29*9.81</f>
         <v>1.2360600000000002</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>23.176125000000003</v>
       </c>
       <c r="O29" s="26">
-        <f t="shared" si="31"/>
+        <f>H29*G29</f>
         <v>577.29960000000005</v>
       </c>
       <c r="P29" s="16">
-        <f t="shared" si="32"/>
+        <f>J29*N29</f>
         <v>161.37981854392564</v>
       </c>
       <c r="Q29" s="6">
-        <f t="shared" si="33"/>
+        <f>P29/O29*100</f>
         <v>27.954257814127299</v>
       </c>
-      <c r="S29" s="21">
-        <v>255</v>
-      </c>
-      <c r="T29" s="5">
-        <v>1</v>
-      </c>
-      <c r="U29" s="17">
+      <c r="S29" s="20">
+        <f>255*0.8</f>
+        <v>204</v>
+      </c>
+      <c r="T29" s="4">
+        <v>4.5730000000000004</v>
+      </c>
+      <c r="U29" s="15">
         <f>(($C$12/T29)/$C$11)/(2*3.141)*60</f>
-        <v>300.54122890799107</v>
+        <v>65.72080229783316</v>
       </c>
       <c r="W29" s="19">
-        <v>5</v>
-      </c>
-      <c r="X29" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="X29" s="13">
+        <v>5.77</v>
+      </c>
     </row>
     <row r="30" spans="5:50" x14ac:dyDescent="0.55000000000000004">
       <c r="E30" s="11">
@@ -4289,41 +4342,53 @@
         <v>0.10940107546819952</v>
       </c>
       <c r="J30" s="15">
-        <f t="shared" si="26"/>
+        <f>I30/$C$11</f>
         <v>5.8347240249706411</v>
       </c>
       <c r="K30" s="16">
-        <f t="shared" si="27"/>
+        <f>J30*(1/(2*PI()))*60</f>
         <v>55.717510209067015</v>
       </c>
       <c r="L30" s="25">
-        <f t="shared" si="28"/>
+        <f>E30*$C$13</f>
         <v>0.16800000000000001</v>
       </c>
       <c r="M30" s="25">
-        <f t="shared" si="29"/>
+        <f>L30*9.81</f>
         <v>1.6480800000000002</v>
       </c>
       <c r="N30" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>30.901500000000002</v>
       </c>
       <c r="O30" s="26">
-        <f t="shared" si="31"/>
+        <f>H30*G30</f>
         <v>601.56479999999999</v>
       </c>
       <c r="P30" s="16">
-        <f t="shared" si="32"/>
+        <f>J30*N30</f>
         <v>180.30172445763029</v>
       </c>
       <c r="Q30" s="6">
-        <f t="shared" si="33"/>
+        <f>P30/O30*100</f>
         <v>29.972120120331226</v>
       </c>
+      <c r="S30" s="21">
+        <v>255</v>
+      </c>
+      <c r="T30" s="5">
+        <v>3.78</v>
+      </c>
+      <c r="U30" s="17">
+        <f>(($C$12/T30)/$C$11)/(2*3.141)*60</f>
+        <v>79.508261615870651</v>
+      </c>
       <c r="W30" s="19">
-        <v>6</v>
-      </c>
-      <c r="X30" s="13"/>
+        <v>4</v>
+      </c>
+      <c r="X30" s="13">
+        <v>5.8230000000000004</v>
+      </c>
     </row>
     <row r="31" spans="5:50" x14ac:dyDescent="0.55000000000000004">
       <c r="E31" s="11">
@@ -4339,45 +4404,47 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="I31" s="15">
+        <f>$C$12/F31</f>
+        <v>8.9870525514089861E-2</v>
+      </c>
+      <c r="J31" s="15">
+        <f>I31/$C$11</f>
+        <v>4.7930946940847932</v>
+      </c>
+      <c r="K31" s="16">
+        <f>J31*(1/(2*PI()))*60</f>
+        <v>45.770682796267849</v>
+      </c>
+      <c r="L31" s="25">
+        <f>E31*$C$13</f>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="M31" s="25">
+        <f>L31*9.81</f>
+        <v>2.0601000000000003</v>
+      </c>
+      <c r="N31" s="15">
         <f t="shared" si="25"/>
-        <v>8.9870525514089861E-2</v>
-      </c>
-      <c r="J31" s="15">
-        <f t="shared" si="26"/>
-        <v>4.7930946940847932</v>
-      </c>
-      <c r="K31" s="16">
-        <f t="shared" si="27"/>
-        <v>45.770682796267849</v>
-      </c>
-      <c r="L31" s="25">
-        <f t="shared" si="28"/>
-        <v>0.21000000000000002</v>
-      </c>
-      <c r="M31" s="25">
-        <f t="shared" si="29"/>
-        <v>2.0601000000000003</v>
-      </c>
-      <c r="N31" s="15">
-        <f t="shared" si="30"/>
         <v>38.626875000000005</v>
       </c>
       <c r="O31" s="26">
-        <f t="shared" si="31"/>
+        <f>H31*G31</f>
         <v>606.06600000000003</v>
       </c>
       <c r="P31" s="16">
-        <f t="shared" si="32"/>
+        <f>J31*N31</f>
         <v>185.14226961157658</v>
       </c>
       <c r="Q31" s="6">
-        <f t="shared" si="33"/>
+        <f>P31/O31*100</f>
         <v>30.548202606906933</v>
       </c>
       <c r="W31" s="19">
-        <v>7</v>
-      </c>
-      <c r="X31" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="X31" s="13">
+        <v>5.952</v>
+      </c>
     </row>
     <row r="32" spans="5:50" x14ac:dyDescent="0.55000000000000004">
       <c r="E32" s="11">
@@ -4393,45 +4460,47 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="I32" s="15">
+        <f>$C$12/F32</f>
+        <v>7.6822916666666671E-2</v>
+      </c>
+      <c r="J32" s="15">
+        <f>I32/$C$11</f>
+        <v>4.0972222222222223</v>
+      </c>
+      <c r="K32" s="16">
+        <f>J32*(1/(2*PI()))*60</f>
+        <v>39.125590176757605</v>
+      </c>
+      <c r="L32" s="25">
+        <f>E32*$C$13</f>
+        <v>0.252</v>
+      </c>
+      <c r="M32" s="25">
+        <f>L32*9.81</f>
+        <v>2.4721200000000003</v>
+      </c>
+      <c r="N32" s="15">
         <f t="shared" si="25"/>
-        <v>7.6822916666666671E-2</v>
-      </c>
-      <c r="J32" s="15">
-        <f t="shared" si="26"/>
-        <v>4.0972222222222223</v>
-      </c>
-      <c r="K32" s="16">
-        <f t="shared" si="27"/>
-        <v>39.125590176757605</v>
-      </c>
-      <c r="L32" s="25">
-        <f t="shared" si="28"/>
-        <v>0.252</v>
-      </c>
-      <c r="M32" s="25">
-        <f t="shared" si="29"/>
-        <v>2.4721200000000003</v>
-      </c>
-      <c r="N32" s="15">
-        <f t="shared" si="30"/>
         <v>46.352250000000005</v>
       </c>
       <c r="O32" s="26">
-        <f t="shared" si="31"/>
+        <f>H32*G32</f>
         <v>595.6196000000001</v>
       </c>
       <c r="P32" s="16">
-        <f t="shared" si="32"/>
+        <f>J32*N32</f>
         <v>189.91546875000003</v>
       </c>
       <c r="Q32" s="6">
-        <f t="shared" si="33"/>
+        <f>P32/O32*100</f>
         <v>31.88536252836542</v>
       </c>
       <c r="W32" s="19">
-        <v>8</v>
-      </c>
-      <c r="X32" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="X32" s="13">
+        <v>5.7350000000000003</v>
+      </c>
     </row>
     <row r="33" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" s="11">
@@ -4447,45 +4516,47 @@
         <v>2.11</v>
       </c>
       <c r="I33" s="15">
+        <f>$C$12/F33</f>
+        <v>5.5456339881567819E-2</v>
+      </c>
+      <c r="J33" s="15">
+        <f>I33/$C$11</f>
+        <v>2.9576714603502836</v>
+      </c>
+      <c r="K33" s="16">
+        <f>J33*(1/(2*PI()))*60</f>
+        <v>28.243681977394345</v>
+      </c>
+      <c r="L33" s="25">
+        <f>E33*$C$13</f>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="M33" s="25">
+        <f>L33*9.81</f>
+        <v>2.8841400000000004</v>
+      </c>
+      <c r="N33" s="15">
         <f t="shared" si="25"/>
-        <v>5.5456339881567819E-2</v>
-      </c>
-      <c r="J33" s="15">
-        <f t="shared" si="26"/>
-        <v>2.9576714603502836</v>
-      </c>
-      <c r="K33" s="16">
-        <f t="shared" si="27"/>
-        <v>28.243681977394345</v>
-      </c>
-      <c r="L33" s="25">
-        <f t="shared" si="28"/>
-        <v>0.29400000000000004</v>
-      </c>
-      <c r="M33" s="25">
-        <f t="shared" si="29"/>
-        <v>2.8841400000000004</v>
-      </c>
-      <c r="N33" s="15">
-        <f t="shared" si="30"/>
         <v>54.077625000000005</v>
       </c>
       <c r="O33" s="26">
-        <f t="shared" si="31"/>
+        <f>H33*G33</f>
         <v>594.0071999999999</v>
       </c>
       <c r="P33" s="16">
-        <f t="shared" si="32"/>
+        <f>J33*N33</f>
         <v>159.94384810602503</v>
       </c>
       <c r="Q33" s="6">
-        <f t="shared" si="33"/>
+        <f>P33/O33*100</f>
         <v>26.926247376466993</v>
       </c>
       <c r="W33" s="19">
-        <v>9</v>
-      </c>
-      <c r="X33" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="X33" s="13">
+        <v>5.6609999999999996</v>
+      </c>
     </row>
     <row r="34" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="E34" s="11">
@@ -4501,45 +4572,47 @@
         <v>1.59</v>
       </c>
       <c r="I34" s="15">
+        <f>$C$12/F34</f>
+        <v>3.6415257375632636E-2</v>
+      </c>
+      <c r="J34" s="15">
+        <f>I34/$C$11</f>
+        <v>1.9421470600337407</v>
+      </c>
+      <c r="K34" s="16">
+        <f>J34*(1/(2*PI()))*60</f>
+        <v>18.546138288945709</v>
+      </c>
+      <c r="L34" s="25">
+        <f>E34*$C$13</f>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="M34" s="25">
+        <f>L34*9.81</f>
+        <v>3.2961600000000004</v>
+      </c>
+      <c r="N34" s="15">
         <f t="shared" si="25"/>
-        <v>3.6415257375632636E-2</v>
-      </c>
-      <c r="J34" s="15">
-        <f t="shared" si="26"/>
-        <v>1.9421470600337407</v>
-      </c>
-      <c r="K34" s="16">
-        <f t="shared" si="27"/>
-        <v>18.546138288945709</v>
-      </c>
-      <c r="L34" s="25">
-        <f t="shared" si="28"/>
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="M34" s="25">
-        <f t="shared" si="29"/>
-        <v>3.2961600000000004</v>
-      </c>
-      <c r="N34" s="15">
-        <f t="shared" si="30"/>
         <v>61.803000000000004</v>
       </c>
       <c r="O34" s="26">
-        <f t="shared" si="31"/>
+        <f>H34*G34</f>
         <v>528.45240000000001</v>
       </c>
       <c r="P34" s="16">
-        <f t="shared" si="32"/>
+        <f>J34*N34</f>
         <v>120.03051475126529</v>
       </c>
       <c r="Q34" s="6">
-        <f t="shared" si="33"/>
+        <f>P34/O34*100</f>
         <v>22.713590618807917</v>
       </c>
-      <c r="W34" s="32">
-        <v>10</v>
-      </c>
-      <c r="X34" s="14"/>
+      <c r="W34" s="19">
+        <v>8</v>
+      </c>
+      <c r="X34" s="13">
+        <v>5.57</v>
+      </c>
     </row>
     <row r="35" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="E35" s="12">
@@ -4555,44 +4628,67 @@
         <v>0</v>
       </c>
       <c r="I35" s="17" t="e">
+        <f>$C$12/F35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J35" s="17" t="e">
+        <f>I35/$C$11</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K35" s="18" t="e">
+        <f>J35*(1/(2*PI()))*60</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L35" s="28">
+        <f>E35*$C$13</f>
+        <v>0.378</v>
+      </c>
+      <c r="M35" s="28">
+        <f>L35*9.81</f>
+        <v>3.70818</v>
+      </c>
+      <c r="N35" s="17">
         <f t="shared" si="25"/>
+        <v>69.528374999999997</v>
+      </c>
+      <c r="O35" s="18">
+        <f>H35*G35</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="18" t="e">
+        <f>J35*N35</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J35" s="17" t="e">
-        <f t="shared" si="26"/>
+      <c r="Q35" s="9" t="e">
+        <f>P35/O35*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K35" s="18" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L35" s="28">
-        <f t="shared" si="28"/>
-        <v>0.378</v>
-      </c>
-      <c r="M35" s="28">
-        <f t="shared" si="29"/>
-        <v>3.70818</v>
-      </c>
-      <c r="N35" s="17">
-        <f t="shared" si="30"/>
-        <v>69.528374999999997</v>
-      </c>
-      <c r="O35" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="18" t="e">
-        <f t="shared" si="32"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q35" s="9" t="e">
-        <f t="shared" si="33"/>
-        <v>#VALUE!</v>
+      <c r="W35" s="19">
+        <v>9</v>
+      </c>
+      <c r="X35" s="13">
+        <v>5.8070000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="5:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="W36" s="32">
+        <v>10</v>
+      </c>
+      <c r="X36" s="14">
+        <v>5.6980000000000004</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Z24:AE27"/>
+    <mergeCell ref="AS24:AX27"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="AK8:AP10"/>
+    <mergeCell ref="AS8:AX10"/>
+    <mergeCell ref="AK24:AP27"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B10:C10"/>
@@ -4602,15 +4698,6 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="J4:N4"/>
-    <mergeCell ref="Z24:AE26"/>
-    <mergeCell ref="AS24:AX26"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="AK8:AP10"/>
-    <mergeCell ref="AS8:AX10"/>
-    <mergeCell ref="AK24:AP26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
